--- a/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
+++ b/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.3472900390625</v>
+        <v>743.9548950195312</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.94117736816406</v>
+        <v>46.05705642700195</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.87073516845703</v>
+        <v>56.19976425170898</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7712.48583984375</v>
+        <v>7787.01416015625</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.6238098144531</v>
+        <v>491.8381652832031</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2161560058594</v>
+        <v>338.6679992675781</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.9710388183594</v>
+        <v>223.6503143310547</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>292.3681640625</v>
+        <v>293.9083557128906</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6179.2275390625</v>
+        <v>6088.43017578125</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5077.62841796875</v>
+        <v>5062.68701171875</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>695.644287109375</v>
+        <v>727.5432739257812</v>
       </c>
     </row>
     <row r="13">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.24123382568359</v>
+        <v>47.15463638305664</v>
       </c>
     </row>
     <row r="14">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.53108978271484</v>
+        <v>55.26637268066406</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7952.78466796875</v>
+        <v>7847.8779296875</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>453.6615905761719</v>
+        <v>482.11474609375</v>
       </c>
     </row>
     <row r="17">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.0802917480469</v>
+        <v>338.1472778320312</v>
       </c>
     </row>
     <row r="18">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>216.1545562744141</v>
+        <v>217.8628845214844</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297.3928833007812</v>
+        <v>295.4661254882812</v>
       </c>
     </row>
     <row r="20">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6368.880859375</v>
+        <v>6146.16259765625</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5208.10791015625</v>
+        <v>5079.158203125</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.4197387695312</v>
+        <v>710.4635009765625</v>
       </c>
     </row>
     <row r="23">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.59535217285156</v>
+        <v>48.16227722167969</v>
       </c>
     </row>
     <row r="24">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.93854141235352</v>
+        <v>53.62020492553711</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8123.25537109375</v>
+        <v>7935.51904296875</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.8255615234375</v>
+        <v>471.2181701660156</v>
       </c>
     </row>
     <row r="27">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>318.1652221679688</v>
+        <v>338.3481140136719</v>
       </c>
     </row>
     <row r="28">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>214.1087799072266</v>
+        <v>217.5046691894531</v>
       </c>
     </row>
     <row r="29">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.4286193847656</v>
+        <v>296.8499450683594</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6482.89990234375</v>
+        <v>6207.685546875</v>
       </c>
     </row>
     <row r="31">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5306.37841796875</v>
+        <v>5130.60205078125</v>
       </c>
     </row>
     <row r="32">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>659.283935546875</v>
+        <v>700.0659790039062</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.71553039550781</v>
+        <v>49.00111389160156</v>
       </c>
     </row>
     <row r="34">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.66439056396484</v>
+        <v>53.27933120727539</v>
       </c>
     </row>
     <row r="35">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8246.623046875</v>
+        <v>8003.92333984375</v>
       </c>
     </row>
     <row r="36">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>431.9186706542969</v>
+        <v>464.3328247070312</v>
       </c>
     </row>
     <row r="37">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>316.9429931640625</v>
+        <v>339.0871887207031</v>
       </c>
     </row>
     <row r="38">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>213.1726684570312</v>
+        <v>218.3101348876953</v>
       </c>
     </row>
     <row r="39">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>302.3492126464844</v>
+        <v>298.1994323730469</v>
       </c>
     </row>
     <row r="40">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6561.17626953125</v>
+        <v>6265.5615234375</v>
       </c>
     </row>
     <row r="41">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5377.92724609375</v>
+        <v>5173.130859375</v>
       </c>
     </row>
     <row r="42">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>633.073974609375</v>
+        <v>682.9404907226562</v>
       </c>
     </row>
     <row r="43">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.78634262084961</v>
+        <v>49.52840423583984</v>
       </c>
     </row>
     <row r="44">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.41481399536133</v>
+        <v>51.8137092590332</v>
       </c>
     </row>
     <row r="45">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8306.4765625</v>
+        <v>8088.3984375</v>
       </c>
     </row>
     <row r="46">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.4291687011719</v>
+        <v>454.4830322265625</v>
       </c>
     </row>
     <row r="47">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>316.0329284667969</v>
+        <v>339.1406860351562</v>
       </c>
     </row>
     <row r="48">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>210.5362091064453</v>
+        <v>218.9806060791016</v>
       </c>
     </row>
     <row r="49">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>303.1402893066406</v>
+        <v>299.6656188964844</v>
       </c>
     </row>
     <row r="50">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6591.06640625</v>
+        <v>6323.7490234375</v>
       </c>
     </row>
     <row r="51">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5407.1220703125</v>
+        <v>5222.57177734375</v>
       </c>
     </row>
     <row r="52">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19.32110595703125</v>
+        <v>22.15810012817383</v>
       </c>
     </row>
     <row r="53">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1091.736572265625</v>
+        <v>1315.465454101562</v>
       </c>
     </row>
     <row r="54">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.004341721534729</v>
+        <v>1.632960915565491</v>
       </c>
     </row>
     <row r="55">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>61.07114791870117</v>
+        <v>96.91005706787109</v>
       </c>
     </row>
     <row r="56">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.855287671089172</v>
+        <v>1.698256015777588</v>
       </c>
     </row>
     <row r="57">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>102.3766555786133</v>
+        <v>99.69310760498047</v>
       </c>
     </row>
     <row r="58">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>471.7100219726562</v>
+        <v>489.7309875488281</v>
       </c>
     </row>
     <row r="59">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15333.517578125</v>
+        <v>15470.693359375</v>
       </c>
     </row>
     <row r="60">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>14.60540866851807</v>
+        <v>17.48176193237305</v>
       </c>
     </row>
     <row r="61">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>731.822265625</v>
+        <v>861.0003051757812</v>
       </c>
     </row>
     <row r="62">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>121.1457824707031</v>
+        <v>147.7611236572266</v>
       </c>
     </row>
     <row r="63">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>480.8414306640625</v>
+        <v>520.5667114257812</v>
       </c>
     </row>
     <row r="64">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15.36692333221436</v>
+        <v>29.28761100769043</v>
       </c>
     </row>
     <row r="65">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>373.94580078125</v>
+        <v>403.0198364257812</v>
       </c>
     </row>
     <row r="66">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>149.3089599609375</v>
+        <v>149.0675964355469</v>
       </c>
     </row>
     <row r="67">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>430.5711364746094</v>
+        <v>444.2067565917969</v>
       </c>
     </row>
     <row r="68">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>223.8027648925781</v>
+        <v>210.5339813232422</v>
       </c>
     </row>
     <row r="69">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11953.8681640625</v>
+        <v>12310.5390625</v>
       </c>
     </row>
     <row r="70">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>175.4799346923828</v>
+        <v>176.3540191650391</v>
       </c>
     </row>
     <row r="71">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9907.0810546875</v>
+        <v>10142.78515625</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.3282604698983</v>
+        <v>732.1133217581624</v>
       </c>
     </row>
     <row r="3">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.1767385759186</v>
+        <v>47.36028099278842</v>
       </c>
     </row>
     <row r="4">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.55330141589985</v>
+        <v>56.92405937297153</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7099.852681037763</v>
+        <v>7442.555882988552</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.4416023360953</v>
+        <v>510.9110842818387</v>
       </c>
     </row>
     <row r="7">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.8903184375253</v>
+        <v>332.9680426038469</v>
       </c>
     </row>
     <row r="8">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.1580724526237</v>
+        <v>228.9791512914327</v>
       </c>
     </row>
     <row r="9">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.1478668565288</v>
+        <v>299.6615155501319</v>
       </c>
     </row>
     <row r="10">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5881.263050321143</v>
+        <v>6128.868487051556</v>
       </c>
     </row>
     <row r="11">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4706.82652585036</v>
+        <v>4978.825320041145</v>
       </c>
     </row>
     <row r="12">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>663.4250690437939</v>
+        <v>737.5853830699818</v>
       </c>
     </row>
     <row r="13">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.04850793386372</v>
+        <v>48.25408425928322</v>
       </c>
     </row>
     <row r="14">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.71448804302929</v>
+        <v>57.01344234782579</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7106.100953232816</v>
+        <v>7434.625020260964</v>
       </c>
     </row>
     <row r="16">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.2878634949701</v>
+        <v>495.0943304852517</v>
       </c>
     </row>
     <row r="17">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>325.4006233914853</v>
+        <v>333.552601610586</v>
       </c>
     </row>
     <row r="18">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>210.7778552474683</v>
+        <v>220.1071968074526</v>
       </c>
     </row>
     <row r="19">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>294.9376168819764</v>
+        <v>299.6523220502613</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5852.475742982626</v>
+        <v>6118.051304227125</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4706.359998902703</v>
+        <v>4972.565392754167</v>
       </c>
     </row>
     <row r="22">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.9174993000947</v>
+        <v>724.8314882160515</v>
       </c>
     </row>
     <row r="23">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.25052213826874</v>
+        <v>47.99229706960283</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.47388741413037</v>
+        <v>57.43803819690496</v>
       </c>
     </row>
     <row r="25">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7106.297864996494</v>
+        <v>7435.717809422262</v>
       </c>
     </row>
     <row r="26">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>437.0668344677359</v>
+        <v>485.2436314104908</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.3881908554009</v>
+        <v>333.5619646557677</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.6462869999519</v>
+        <v>217.3131977325302</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>294.9054375463633</v>
+        <v>299.648047412304</v>
       </c>
     </row>
     <row r="30">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5799.034112519348</v>
+        <v>6118.233474689065</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4703.13749982514</v>
+        <v>4974.569530616444</v>
       </c>
     </row>
     <row r="32">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>641.2065323219977</v>
+        <v>715.0857753067796</v>
       </c>
     </row>
     <row r="33">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.53910503722168</v>
+        <v>48.09632376084575</v>
       </c>
     </row>
     <row r="34">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.98856171636269</v>
+        <v>57.65721798737773</v>
       </c>
     </row>
     <row r="35">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7106.009761983608</v>
+        <v>7442.555882988552</v>
       </c>
     </row>
     <row r="36">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>427.2604612671244</v>
+        <v>475.0241772004625</v>
       </c>
     </row>
     <row r="37">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.2528688402375</v>
+        <v>333.578468797672</v>
       </c>
     </row>
     <row r="38">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>206.6254763006961</v>
+        <v>215.4473972410901</v>
       </c>
     </row>
     <row r="39">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>294.9054375463633</v>
+        <v>299.6572407810266</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5758.138399671426</v>
+        <v>6123.413683219335</v>
       </c>
     </row>
     <row r="41">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4701.598455389436</v>
+        <v>4977.686077015368</v>
       </c>
     </row>
     <row r="42">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>628.2207911220016</v>
+        <v>697.7440032128787</v>
       </c>
     </row>
     <row r="43">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.63545574537201</v>
+        <v>48.0465626490264</v>
       </c>
     </row>
     <row r="44">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.24150037928002</v>
+        <v>57.01511103581366</v>
       </c>
     </row>
     <row r="45">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7100.767497995126</v>
+        <v>7433.573017725581</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>420.0071561827727</v>
+        <v>464.2853714200281</v>
       </c>
     </row>
     <row r="47">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>324.5900803289924</v>
+        <v>333.5496103210544</v>
       </c>
     </row>
     <row r="48">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>205.2776433711338</v>
+        <v>214.2577581969487</v>
       </c>
     </row>
     <row r="49">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>294.9148990914623</v>
+        <v>299.648047412304</v>
       </c>
     </row>
     <row r="50">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5714.907074693579</v>
+        <v>6117.763478090195</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4697.47824230536</v>
+        <v>4972.014702912228</v>
       </c>
     </row>
     <row r="52">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12.77897514735557</v>
+        <v>10.55998534267962</v>
       </c>
     </row>
     <row r="53">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1206.11189353202</v>
+        <v>1241.568965685356</v>
       </c>
     </row>
     <row r="54">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6982899903470882</v>
+        <v>0.6593539557211646</v>
       </c>
     </row>
     <row r="55">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>54.0355676516756</v>
+        <v>86.26871616241012</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.12118540011644</v>
+        <v>1.267568405794226</v>
       </c>
     </row>
     <row r="57">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>105.7346598460042</v>
+        <v>107.6805797822752</v>
       </c>
     </row>
     <row r="58">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>447.3536739953151</v>
+        <v>340.6082437766621</v>
       </c>
     </row>
     <row r="59">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15501.52160183007</v>
+        <v>15194.54367871735</v>
       </c>
     </row>
     <row r="60">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.22081767181698</v>
+        <v>10.71483635888364</v>
       </c>
     </row>
     <row r="61">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>782.829830513837</v>
+        <v>827.4906999664578</v>
       </c>
     </row>
     <row r="62">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>132.3684001879547</v>
+        <v>145.8495286903125</v>
       </c>
     </row>
     <row r="63">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>489.6113759623512</v>
+        <v>511.3879263721379</v>
       </c>
     </row>
     <row r="64">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13.02030359645627</v>
+        <v>26.62106237923896</v>
       </c>
     </row>
     <row r="65">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>386.0280282346208</v>
+        <v>396.0895253537402</v>
       </c>
     </row>
     <row r="66">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>148.9563511931853</v>
+        <v>148.0230142476622</v>
       </c>
     </row>
     <row r="67">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>437.3188078789801</v>
+        <v>444.0940059654172</v>
       </c>
     </row>
     <row r="68">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>135.6604372385165</v>
+        <v>110.2808120548954</v>
       </c>
     </row>
     <row r="69">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12193.67097549705</v>
+        <v>12169.88430304586</v>
       </c>
     </row>
     <row r="70">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>108.7510325399341</v>
+        <v>96.39373167149529</v>
       </c>
     </row>
     <row r="71">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10137.71017811172</v>
+        <v>10048.63662757153</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>650.91015625</v>
+        <v>752.1180419921875</v>
       </c>
     </row>
     <row r="3">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.46448516845703</v>
+        <v>44.85398483276367</v>
       </c>
     </row>
     <row r="4">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.88475799560547</v>
+        <v>57.69758605957031</v>
       </c>
     </row>
     <row r="5">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7380.798828125</v>
+        <v>7872.8408203125</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>442.1197814941406</v>
+        <v>491.8665161132812</v>
       </c>
     </row>
     <row r="7">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>314.3853149414062</v>
+        <v>331.0531616210938</v>
       </c>
     </row>
     <row r="8">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.0671234130859</v>
+        <v>226.2816772460938</v>
       </c>
     </row>
     <row r="9">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.4284362792969</v>
+        <v>295.9801330566406</v>
       </c>
     </row>
     <row r="10">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5752.65283203125</v>
+        <v>6144.31103515625</v>
       </c>
     </row>
     <row r="11">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4730.20751953125</v>
+        <v>5079.43896484375</v>
       </c>
     </row>
     <row r="12">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>674.8768310546875</v>
+        <v>742.80810546875</v>
       </c>
     </row>
     <row r="13">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.11111831665039</v>
+        <v>45.67616271972656</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.51460647583008</v>
+        <v>58.62888717651367</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7462.60498046875</v>
+        <v>7918.80419921875</v>
       </c>
     </row>
     <row r="16">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>453.0271301269531</v>
+        <v>485.4749755859375</v>
       </c>
     </row>
     <row r="17">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>310.0545349121094</v>
+        <v>331.9440612792969</v>
       </c>
     </row>
     <row r="18">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>203.7616271972656</v>
+        <v>215.1405792236328</v>
       </c>
     </row>
     <row r="19">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.9930725097656</v>
+        <v>295.2943115234375</v>
       </c>
     </row>
     <row r="20">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5864.3623046875</v>
+        <v>6205.904296875</v>
       </c>
     </row>
     <row r="21">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4823.46533203125</v>
+        <v>5134.64990234375</v>
       </c>
     </row>
     <row r="22">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>684.0890502929688</v>
+        <v>720.7529907226562</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.80347061157227</v>
+        <v>46.11503601074219</v>
       </c>
     </row>
     <row r="24">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.90410232543945</v>
+        <v>58.56322479248047</v>
       </c>
     </row>
     <row r="25">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7500.8203125</v>
+        <v>7914.50830078125</v>
       </c>
     </row>
     <row r="26">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>446.7309265136719</v>
+        <v>477.53515625</v>
       </c>
     </row>
     <row r="27">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>308.6299438476562</v>
+        <v>330.1887817382812</v>
       </c>
     </row>
     <row r="28">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.3731231689453</v>
+        <v>214.1634826660156</v>
       </c>
     </row>
     <row r="29">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.8728332519531</v>
+        <v>296.1854248046875</v>
       </c>
     </row>
     <row r="30">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5874.77392578125</v>
+        <v>6207.62646484375</v>
       </c>
     </row>
     <row r="31">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4840.83837890625</v>
+        <v>5130.58740234375</v>
       </c>
     </row>
     <row r="32">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>659.7555541992188</v>
+        <v>721.0833740234375</v>
       </c>
     </row>
     <row r="33">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.57168579101562</v>
+        <v>45.7468147277832</v>
       </c>
     </row>
     <row r="34">
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.91519927978516</v>
+        <v>58.05190277099609</v>
       </c>
     </row>
     <row r="35">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7482.7587890625</v>
+        <v>7891.36962890625</v>
       </c>
     </row>
     <row r="36">
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>413.7099304199219</v>
+        <v>475.5486450195312</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>309.8294372558594</v>
+        <v>330.3031005859375</v>
       </c>
     </row>
     <row r="38">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196.9898376464844</v>
+        <v>212.4044647216797</v>
       </c>
     </row>
     <row r="39">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>286.6260375976562</v>
+        <v>296.1813354492188</v>
       </c>
     </row>
     <row r="40">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5870.90966796875</v>
+        <v>6188.3330078125</v>
       </c>
     </row>
     <row r="41">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4850.126953125</v>
+        <v>5108.92822265625</v>
       </c>
     </row>
     <row r="42">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>636.5079956054688</v>
+        <v>706.8828125</v>
       </c>
     </row>
     <row r="43">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.27554702758789</v>
+        <v>45.3195915222168</v>
       </c>
     </row>
     <row r="44">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.38283920288086</v>
+        <v>57.57792282104492</v>
       </c>
     </row>
     <row r="45">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7477.4931640625</v>
+        <v>7896.158203125</v>
       </c>
     </row>
     <row r="46">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.3391418457031</v>
+        <v>466.6205444335938</v>
       </c>
     </row>
     <row r="47">
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>309.5413208007812</v>
+        <v>328.4996032714844</v>
       </c>
     </row>
     <row r="48">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>196.4835357666016</v>
+        <v>211.0957946777344</v>
       </c>
     </row>
     <row r="49">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>287.2643432617188</v>
+        <v>295.6739196777344</v>
       </c>
     </row>
     <row r="50">
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5873.54150390625</v>
+        <v>6191.33154296875</v>
       </c>
     </row>
     <row r="51">
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4852.33349609375</v>
+        <v>5100.62744140625</v>
       </c>
     </row>
     <row r="52">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9.274786949157715</v>
+        <v>9.109942436218262</v>
       </c>
     </row>
     <row r="53">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1191.57373046875</v>
+        <v>1224.920166015625</v>
       </c>
     </row>
     <row r="54">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6663949489593506</v>
+        <v>0.532173752784729</v>
       </c>
     </row>
     <row r="55">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>74.563232421875</v>
+        <v>85.32498931884766</v>
       </c>
     </row>
     <row r="56">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8633984923362732</v>
+        <v>0.8080381155014038</v>
       </c>
     </row>
     <row r="57">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>106.8114700317383</v>
+        <v>99.04320526123047</v>
       </c>
     </row>
     <row r="58">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>387.9747924804688</v>
+        <v>361.5394897460938</v>
       </c>
     </row>
     <row r="59">
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14210.8759765625</v>
+        <v>15039.36328125</v>
       </c>
     </row>
     <row r="60">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.469182968139648</v>
+        <v>8.659568786621094</v>
       </c>
     </row>
     <row r="61">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>824.4082641601562</v>
+        <v>800.4030151367188</v>
       </c>
     </row>
     <row r="62">
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>136.6380462646484</v>
+        <v>139.1225433349609</v>
       </c>
     </row>
     <row r="63">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>476.4266052246094</v>
+        <v>487.5586853027344</v>
       </c>
     </row>
     <row r="64">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>21.29433631896973</v>
+        <v>22.68127632141113</v>
       </c>
     </row>
     <row r="65">
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>362.0416564941406</v>
+        <v>384.67626953125</v>
       </c>
     </row>
     <row r="66">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>148.1876525878906</v>
+        <v>147.6239318847656</v>
       </c>
     </row>
     <row r="67">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>422.3440246582031</v>
+        <v>434.7213134765625</v>
       </c>
     </row>
     <row r="68">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>76.76777648925781</v>
+        <v>74.13086700439453</v>
       </c>
     </row>
     <row r="69">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11447.12890625</v>
+        <v>11844.7109375</v>
       </c>
     </row>
     <row r="70">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>65.37992858886719</v>
+        <v>60.75808715820312</v>
       </c>
     </row>
     <row r="71">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9380.828125</v>
+        <v>9825.0341796875</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>668.8045530482844</v>
+        <v>728.0865043718316</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.58266730324879</v>
+        <v>47.36864878199595</v>
       </c>
     </row>
     <row r="4">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.29164922669296</v>
+        <v>55.88547353527941</v>
       </c>
     </row>
     <row r="5">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7531.299665572709</v>
+        <v>7861.974417943623</v>
       </c>
     </row>
     <row r="6">
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>442.4653069498004</v>
+        <v>483.4342474437279</v>
       </c>
     </row>
     <row r="7">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>316.5296698261389</v>
+        <v>331.37133939106</v>
       </c>
     </row>
     <row r="8">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.9616721736138</v>
+        <v>217.8979438049221</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>291.6620771306264</v>
+        <v>296.2458903970086</v>
       </c>
     </row>
     <row r="10">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5927.391943715596</v>
+        <v>6180.058646074726</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4875.984886572631</v>
+        <v>5100.626263809114</v>
       </c>
     </row>
     <row r="12">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.5137083700009</v>
+        <v>711.7516560685549</v>
       </c>
     </row>
     <row r="13">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.43215229567627</v>
+        <v>47.66237850564231</v>
       </c>
     </row>
     <row r="14">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.10482215436378</v>
+        <v>56.19666034161112</v>
       </c>
     </row>
     <row r="15">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7531.544630836991</v>
+        <v>7860.158583713692</v>
       </c>
     </row>
     <row r="16">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.6361865093631</v>
+        <v>469.9070573131766</v>
       </c>
     </row>
     <row r="17">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>319.7991546992804</v>
+        <v>332.9326846553332</v>
       </c>
     </row>
     <row r="18">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>204.3925572527057</v>
+        <v>214.2655603620674</v>
       </c>
     </row>
     <row r="19">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>289.0786143680245</v>
+        <v>295.5609554992419</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5905.864583388987</v>
+        <v>6171.114547611825</v>
       </c>
     </row>
     <row r="21">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4871.757030080814</v>
+        <v>5095.579857653584</v>
       </c>
     </row>
     <row r="22">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>638.0538177998852</v>
+        <v>698.1674584763018</v>
       </c>
     </row>
     <row r="23">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.37920668544552</v>
+        <v>47.26654974505059</v>
       </c>
     </row>
     <row r="24">
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.58974577412189</v>
+        <v>55.23931628071381</v>
       </c>
     </row>
     <row r="25">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7519.722538708062</v>
+        <v>7846.741401732513</v>
       </c>
     </row>
     <row r="26">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.1967874105459</v>
+        <v>461.3413591290907</v>
       </c>
     </row>
     <row r="27">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>321.1513566097661</v>
+        <v>332.2488769934763</v>
       </c>
     </row>
     <row r="28">
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>203.7293225965871</v>
+        <v>213.3190306490219</v>
       </c>
     </row>
     <row r="29">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.9317318936971</v>
+        <v>295.2587301606927</v>
       </c>
     </row>
     <row r="30">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5888.9163624694</v>
+        <v>6158.210490966749</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4863.026191008159</v>
+        <v>5084.70842501139</v>
       </c>
     </row>
     <row r="32">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>631.5287946155869</v>
+        <v>685.8670695395289</v>
       </c>
     </row>
     <row r="33">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.42269816657896</v>
+        <v>46.88624051059498</v>
       </c>
     </row>
     <row r="34">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.01521315667124</v>
+        <v>54.39354350576418</v>
       </c>
     </row>
     <row r="35">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7512.820401376652</v>
+        <v>7838.301896440801</v>
       </c>
     </row>
     <row r="36">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>417.9810408746669</v>
+        <v>453.8094208113199</v>
       </c>
     </row>
     <row r="37">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>321.3487491975481</v>
+        <v>331.6032809194966</v>
       </c>
     </row>
     <row r="38">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>203.310133837087</v>
+        <v>212.6415888794845</v>
       </c>
     </row>
     <row r="39">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>287.8187430777863</v>
+        <v>295.0511170215038</v>
       </c>
     </row>
     <row r="40">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5882.769185105546</v>
+        <v>6149.337135543738</v>
       </c>
     </row>
     <row r="41">
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4857.657052672975</v>
+        <v>5077.221772897135</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>623.8886031454485</v>
+        <v>672.1804314917139</v>
       </c>
     </row>
     <row r="43">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.21629197742516</v>
+        <v>46.51100695743798</v>
       </c>
     </row>
     <row r="44">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.44715628140151</v>
+        <v>53.38206959088152</v>
       </c>
     </row>
     <row r="45">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7516.289620092012</v>
+        <v>7834.804792059113</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0327088232693</v>
+        <v>445.0656924476085</v>
       </c>
     </row>
     <row r="47">
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>321.1221285716857</v>
+        <v>330.8319552728197</v>
       </c>
     </row>
     <row r="48">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>202.9256400929492</v>
+        <v>211.7983882083976</v>
       </c>
     </row>
     <row r="49">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>287.7958829825141</v>
+        <v>294.881936738198</v>
       </c>
     </row>
     <row r="50">
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5884.311679838615</v>
+        <v>6144.548288379263</v>
       </c>
     </row>
     <row r="51">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4858.855793191206</v>
+        <v>5073.014014524916</v>
       </c>
     </row>
     <row r="52">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.52929306047595</v>
+        <v>14.55550977640556</v>
       </c>
     </row>
     <row r="53">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1299.702488749118</v>
+        <v>1310.133835000106</v>
       </c>
     </row>
     <row r="54">
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7221383906875004</v>
+        <v>0.9881853079289358</v>
       </c>
     </row>
     <row r="55">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>89.13846905077932</v>
+        <v>88.94604359830554</v>
       </c>
     </row>
     <row r="56">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8438473185055719</v>
+        <v>1.170453181767594</v>
       </c>
     </row>
     <row r="57">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>104.1618324883463</v>
+        <v>105.3518797536706</v>
       </c>
     </row>
     <row r="58">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>388.958429886117</v>
+        <v>423.5233848439241</v>
       </c>
     </row>
     <row r="59">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15079.74102427328</v>
+        <v>15133.48652031591</v>
       </c>
     </row>
     <row r="60">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.89085808291696</v>
+        <v>12.96515412618448</v>
       </c>
     </row>
     <row r="61">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>859.6379806347205</v>
+        <v>866.1280700924727</v>
       </c>
     </row>
     <row r="62">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>143.9827290708132</v>
+        <v>143.3057397725607</v>
       </c>
     </row>
     <row r="63">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>513.1097482200523</v>
+        <v>512.854218611675</v>
       </c>
     </row>
     <row r="64">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24.8878066544831</v>
+        <v>24.7520142454265</v>
       </c>
     </row>
     <row r="65">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>393.6325426579942</v>
+        <v>394.3570920702635</v>
       </c>
     </row>
     <row r="66">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>147.6961088385826</v>
+        <v>148.1983863134559</v>
       </c>
     </row>
     <row r="67">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>439.6187231968545</v>
+        <v>440.1231270195361</v>
       </c>
     </row>
     <row r="68">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>97.01557081441132</v>
+        <v>133.525723026273</v>
       </c>
     </row>
     <row r="69">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11975.29388826863</v>
+        <v>12018.58061083815</v>
       </c>
     </row>
     <row r="70">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>80.11013642049724</v>
+        <v>110.2634263415566</v>
       </c>
     </row>
     <row r="71">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9888.540767336683</v>
+        <v>9924.753432358935</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655.8609373124177</v>
+        <v>816.8767443758658</v>
       </c>
     </row>
     <row r="3">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.18646701544072</v>
+        <v>48.16735825881305</v>
       </c>
     </row>
     <row r="4">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.90474656154141</v>
+        <v>63.71496811880463</v>
       </c>
     </row>
     <row r="5">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7523.785292254757</v>
+        <v>7870.144670778868</v>
       </c>
     </row>
     <row r="6">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433.9309856914217</v>
+        <v>535.7261471994732</v>
       </c>
     </row>
     <row r="7">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2828537957621</v>
+        <v>335.5774699012516</v>
       </c>
     </row>
     <row r="8">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6474904410726</v>
+        <v>219.8479347145346</v>
       </c>
     </row>
     <row r="9">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>288.0055057124503</v>
+        <v>295.7112493434763</v>
       </c>
     </row>
     <row r="10">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5895.844333185622</v>
+        <v>6193.593493491417</v>
       </c>
     </row>
     <row r="11">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4869.188125410067</v>
+        <v>5117.917769403903</v>
       </c>
     </row>
     <row r="12">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>623.5179635557693</v>
+        <v>832.2070573481162</v>
       </c>
     </row>
     <row r="13">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.23108281425328</v>
+        <v>50.43628490836347</v>
       </c>
     </row>
     <row r="14">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.01071440929488</v>
+        <v>65.02958734768382</v>
       </c>
     </row>
     <row r="15">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7479.219148548547</v>
+        <v>8063.238582758333</v>
       </c>
     </row>
     <row r="16">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.8370533775114</v>
+        <v>545.9349703666711</v>
       </c>
     </row>
     <row r="17">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>321.5273534476886</v>
+        <v>341.8208346830304</v>
       </c>
     </row>
     <row r="18">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>203.2023933730386</v>
+        <v>224.1113281148008</v>
       </c>
     </row>
     <row r="19">
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287.2084123863925</v>
+        <v>300.0442103858646</v>
       </c>
     </row>
     <row r="20">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5855.267822892637</v>
+        <v>6350.17947546637</v>
       </c>
     </row>
     <row r="21">
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4834.921512206134</v>
+        <v>5246.011948848677</v>
       </c>
     </row>
     <row r="22">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>605.426494078873</v>
+        <v>860.5234225232274</v>
       </c>
     </row>
     <row r="23">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.36159475063574</v>
+        <v>50.79536756285791</v>
       </c>
     </row>
     <row r="24">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.782301402248</v>
+        <v>67.5004394234292</v>
       </c>
     </row>
     <row r="25">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7445.745141257604</v>
+        <v>8143.386369385737</v>
       </c>
     </row>
     <row r="26">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.2727430465878</v>
+        <v>563.8286807124417</v>
       </c>
     </row>
     <row r="27">
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>319.3094069100076</v>
+        <v>343.0002407675514</v>
       </c>
     </row>
     <row r="28">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.3517670032301</v>
+        <v>226.3942606512308</v>
       </c>
     </row>
     <row r="29">
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.2199540815207</v>
+        <v>301.5790797343686</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5825.289223005551</v>
+        <v>6417.393078269995</v>
       </c>
     </row>
     <row r="31">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4810.247367433275</v>
+        <v>5302.410452771909</v>
       </c>
     </row>
     <row r="32">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>606.0220222582042</v>
+        <v>881.398620617666</v>
       </c>
     </row>
     <row r="33">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.78530041075742</v>
+        <v>50.20767026462403</v>
       </c>
     </row>
     <row r="34">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.84934042880852</v>
+        <v>68.59769584661402</v>
       </c>
     </row>
     <row r="35">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7571.534593416256</v>
+        <v>8000.824452391193</v>
       </c>
     </row>
     <row r="36">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>401.8390442777676</v>
+        <v>576.1911946706724</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>321.9220930499094</v>
+        <v>342.0362275693473</v>
       </c>
     </row>
     <row r="38">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>203.963161496572</v>
+        <v>224.9557017858819</v>
       </c>
     </row>
     <row r="39">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>288.6138957437873</v>
+        <v>298.8511308861228</v>
       </c>
     </row>
     <row r="40">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5924.819603044134</v>
+        <v>6307.007602641549</v>
       </c>
     </row>
     <row r="41">
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4892.337987652581</v>
+        <v>5212.324099612391</v>
       </c>
     </row>
     <row r="42">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>596.1143651881331</v>
+        <v>867.7107702935308</v>
       </c>
     </row>
     <row r="43">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.71610680994063</v>
+        <v>50.67564906302879</v>
       </c>
     </row>
     <row r="44">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.60772033841702</v>
+        <v>67.54348364060411</v>
       </c>
     </row>
     <row r="45">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7733.901485079595</v>
+        <v>8029.952522294572</v>
       </c>
     </row>
     <row r="46">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.615697592151</v>
+        <v>567.7967003889562</v>
       </c>
     </row>
     <row r="47">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>324.86258988738</v>
+        <v>342.4635909684081</v>
       </c>
     </row>
     <row r="48">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>205.8407425518354</v>
+        <v>225.0029285723265</v>
       </c>
     </row>
     <row r="49">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>291.8066659904324</v>
+        <v>299.5186323924043</v>
       </c>
     </row>
     <row r="50">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6050.82093738745</v>
+        <v>6328.809694220271</v>
       </c>
     </row>
     <row r="51">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4996.332988465644</v>
+        <v>5229.397036741365</v>
       </c>
     </row>
     <row r="52">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.769880442135942</v>
+        <v>51.03727134222724</v>
       </c>
     </row>
     <row r="53">
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1206.006017324431</v>
+        <v>1586.070288615511</v>
       </c>
     </row>
     <row r="54">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2782318613259229</v>
+        <v>2.983473096429088</v>
       </c>
     </row>
     <row r="55">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>89.00794179571139</v>
+        <v>92.71651698226111</v>
       </c>
     </row>
     <row r="56">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3012831643137497</v>
+        <v>4.050124005057489</v>
       </c>
     </row>
     <row r="57">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>96.38218364165617</v>
+        <v>125.8645139266146</v>
       </c>
     </row>
     <row r="58">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>287.7754498313048</v>
+        <v>685.4393576884297</v>
       </c>
     </row>
     <row r="59">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14867.18750435814</v>
+        <v>15001.9083103243</v>
       </c>
     </row>
     <row r="60">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.91035805793395</v>
+        <v>35.19722671242425</v>
       </c>
     </row>
     <row r="61">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>801.3401975762206</v>
+        <v>1038.08320811484</v>
       </c>
     </row>
     <row r="62">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>144.3183647540253</v>
+        <v>147.7556084357325</v>
       </c>
     </row>
     <row r="63">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>506.988404172703</v>
+        <v>522.053875694943</v>
       </c>
     </row>
     <row r="64">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>23.89372293437722</v>
+        <v>30.25295263836945</v>
       </c>
     </row>
     <row r="65">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>385.603913260362</v>
+        <v>404.8241414038123</v>
       </c>
     </row>
     <row r="66">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>145.613810754536</v>
+        <v>152.5844782930201</v>
       </c>
     </row>
     <row r="67">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>435.7738635464088</v>
+        <v>439.0828312079901</v>
       </c>
     </row>
     <row r="68">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>36.8674472160666</v>
+        <v>384.6762123874286</v>
       </c>
     </row>
     <row r="69">
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11794.10431402852</v>
+        <v>11954.46964853793</v>
       </c>
     </row>
     <row r="70">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>30.43161819712654</v>
+        <v>317.8771536187072</v>
       </c>
     </row>
     <row r="71">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9735.246309790238</v>
+        <v>9878.574922306931</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667.2193800991851</v>
+        <v>666.7116677363324</v>
       </c>
     </row>
     <row r="3">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.41397638786494</v>
+        <v>35.47246870067185</v>
       </c>
     </row>
     <row r="4">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.34855989622838</v>
+        <v>48.29337673982876</v>
       </c>
     </row>
     <row r="5">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6722.412926224334</v>
+        <v>6733.310948694922</v>
       </c>
     </row>
     <row r="6">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440.7843661718403</v>
+        <v>440.5037805966199</v>
       </c>
     </row>
     <row r="7">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.7634928823782</v>
+        <v>306.2290623025789</v>
       </c>
     </row>
     <row r="8">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.6264403342487</v>
+        <v>198.9165845058161</v>
       </c>
     </row>
     <row r="9">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276.7417060415434</v>
+        <v>276.9202450502161</v>
       </c>
     </row>
     <row r="10">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5262.551425931419</v>
+        <v>5270.288015037889</v>
       </c>
     </row>
     <row r="11">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4346.10726164527</v>
+        <v>4353.006810472298</v>
       </c>
     </row>
     <row r="12">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.2193800991851</v>
+        <v>666.7116677363324</v>
       </c>
     </row>
     <row r="13">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.41397638786494</v>
+        <v>35.47246870067185</v>
       </c>
     </row>
     <row r="14">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.34855989622838</v>
+        <v>48.29337673982876</v>
       </c>
     </row>
     <row r="15">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6722.412926224334</v>
+        <v>6733.310948694922</v>
       </c>
     </row>
     <row r="16">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.7843661718403</v>
+        <v>440.5037805966199</v>
       </c>
     </row>
     <row r="17">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>305.7634928823782</v>
+        <v>306.2290623025789</v>
       </c>
     </row>
     <row r="18">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>198.6264403342487</v>
+        <v>198.9165845058161</v>
       </c>
     </row>
     <row r="19">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>276.7417060415434</v>
+        <v>276.9202450502161</v>
       </c>
     </row>
     <row r="20">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5262.551425931419</v>
+        <v>5270.288015037889</v>
       </c>
     </row>
     <row r="21">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4346.10726164527</v>
+        <v>4353.006810472298</v>
       </c>
     </row>
     <row r="22">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>667.2193800991851</v>
+        <v>666.7116677363324</v>
       </c>
     </row>
     <row r="23">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.41397638786494</v>
+        <v>35.47246870067185</v>
       </c>
     </row>
     <row r="24">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48.34855989622838</v>
+        <v>48.29337673982876</v>
       </c>
     </row>
     <row r="25">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6722.412926224334</v>
+        <v>6733.310948694922</v>
       </c>
     </row>
     <row r="26">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>440.7843661718403</v>
+        <v>440.5037805966199</v>
       </c>
     </row>
     <row r="27">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>305.7634928823782</v>
+        <v>306.2290623025789</v>
       </c>
     </row>
     <row r="28">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.6264403342487</v>
+        <v>198.9165845058161</v>
       </c>
     </row>
     <row r="29">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.7417060415434</v>
+        <v>276.9202450502161</v>
       </c>
     </row>
     <row r="30">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5262.551425931419</v>
+        <v>5270.288015037889</v>
       </c>
     </row>
     <row r="31">
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4346.10726164527</v>
+        <v>4353.006810472298</v>
       </c>
     </row>
     <row r="32">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>667.2193800991851</v>
+        <v>666.7116677363324</v>
       </c>
     </row>
     <row r="33">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.41397638786494</v>
+        <v>35.47246870067185</v>
       </c>
     </row>
     <row r="34">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.34855989622838</v>
+        <v>48.29337673982876</v>
       </c>
     </row>
     <row r="35">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6722.412926224334</v>
+        <v>6733.310948694922</v>
       </c>
     </row>
     <row r="36">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>440.7843661718403</v>
+        <v>440.5037805966199</v>
       </c>
     </row>
     <row r="37">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>305.7634928823782</v>
+        <v>306.2290623025789</v>
       </c>
     </row>
     <row r="38">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.6264403342487</v>
+        <v>198.9165845058161</v>
       </c>
     </row>
     <row r="39">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>276.7417060415434</v>
+        <v>276.9202450502161</v>
       </c>
     </row>
     <row r="40">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5262.551425931419</v>
+        <v>5270.288015037889</v>
       </c>
     </row>
     <row r="41">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4346.10726164527</v>
+        <v>4353.006810472298</v>
       </c>
     </row>
     <row r="42">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>667.2193800991851</v>
+        <v>666.7116677363324</v>
       </c>
     </row>
     <row r="43">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.41397638786494</v>
+        <v>35.47246870067185</v>
       </c>
     </row>
     <row r="44">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.34855989622838</v>
+        <v>48.29337673982876</v>
       </c>
     </row>
     <row r="45">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6722.412926224334</v>
+        <v>6733.310948694922</v>
       </c>
     </row>
     <row r="46">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>440.7843661718403</v>
+        <v>440.5037805966199</v>
       </c>
     </row>
     <row r="47">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>305.7634928823782</v>
+        <v>306.2290623025789</v>
       </c>
     </row>
     <row r="48">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>198.6264403342487</v>
+        <v>198.9165845058161</v>
       </c>
     </row>
     <row r="49">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>276.7417060415434</v>
+        <v>276.9202450502161</v>
       </c>
     </row>
     <row r="50">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5262.551425931419</v>
+        <v>5270.288015037889</v>
       </c>
     </row>
     <row r="51">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4346.10726164527</v>
+        <v>4353.006810472298</v>
       </c>
     </row>
     <row r="52">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.28565781651379</v>
+        <v>22.4431796304299</v>
       </c>
     </row>
     <row r="53">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1275.762708578802</v>
+        <v>1274.888979051909</v>
       </c>
     </row>
     <row r="54">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.231487115350348</v>
+        <v>1.243322578050429</v>
       </c>
     </row>
     <row r="55">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>70.49759763856147</v>
+        <v>70.62716951272569</v>
       </c>
     </row>
     <row r="56">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.673635113165808</v>
+        <v>1.684658299570434</v>
       </c>
     </row>
     <row r="57">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>95.80876107515341</v>
+        <v>95.69732698118203</v>
       </c>
     </row>
     <row r="58">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>605.5227022810285</v>
+        <v>607.2628117696343</v>
       </c>
     </row>
     <row r="59">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13091.80431673269</v>
+        <v>13114.5421413707</v>
       </c>
     </row>
     <row r="60">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>21.89316564511418</v>
+        <v>22.09312712698204</v>
       </c>
     </row>
     <row r="61">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>836.7294150204331</v>
+        <v>836.1685910481496</v>
       </c>
     </row>
     <row r="62">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>145.3130805370691</v>
+        <v>145.6052850312007</v>
       </c>
     </row>
     <row r="63">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>480.3152845330707</v>
+        <v>481.1107164620643</v>
       </c>
     </row>
     <row r="64">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30.35639858149808</v>
+        <v>30.50732890518851</v>
       </c>
     </row>
     <row r="65">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>358.5992330270815</v>
+        <v>359.1905346097922</v>
       </c>
     </row>
     <row r="66">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>153.4420523553926</v>
+        <v>153.4720924858425</v>
       </c>
     </row>
     <row r="67">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>410.2171610594393</v>
+        <v>410.5168249103172</v>
       </c>
     </row>
     <row r="68">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>181.7859577574733</v>
+        <v>183.4852611410891</v>
       </c>
     </row>
     <row r="69">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10406.50214410163</v>
+        <v>10422.9142705817</v>
       </c>
     </row>
     <row r="70">
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>150.0960364490591</v>
+        <v>151.5159940119501</v>
       </c>
     </row>
     <row r="71">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8592.383836446665</v>
+        <v>8606.894125377115</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.4126296169849</v>
+        <v>902.3872718842798</v>
       </c>
     </row>
     <row r="3">
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.05827448137144</v>
+        <v>37.59585122867147</v>
       </c>
     </row>
     <row r="4">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.91466519331954</v>
+        <v>50.04357584070438</v>
       </c>
     </row>
     <row r="5">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9171.417275738751</v>
+        <v>9303.641360991734</v>
       </c>
     </row>
     <row r="6">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.6585225356329</v>
+        <v>604.0326101929663</v>
       </c>
     </row>
     <row r="7">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378.5971756614765</v>
+        <v>374.3766619009053</v>
       </c>
     </row>
     <row r="8">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.596893223348</v>
+        <v>261.5087990887363</v>
       </c>
     </row>
     <row r="9">
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.9989385613196</v>
+        <v>334.7668489729705</v>
       </c>
     </row>
     <row r="10">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7519.251742693486</v>
+        <v>7522.960622008025</v>
       </c>
     </row>
     <row r="11">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5965.457793114516</v>
+        <v>6078.34171126957</v>
       </c>
     </row>
     <row r="12">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>685.4554766550801</v>
+        <v>790.3233946540369</v>
       </c>
     </row>
     <row r="13">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.8486142358509</v>
+        <v>21.6078537756945</v>
       </c>
     </row>
     <row r="14">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.26858266319961</v>
+        <v>23.50337007536328</v>
       </c>
     </row>
     <row r="15">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9649.021100660841</v>
+        <v>10358.68744459488</v>
       </c>
     </row>
     <row r="16">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>432.4376421940933</v>
+        <v>504.9430528175697</v>
       </c>
     </row>
     <row r="17">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>402.7608868932095</v>
+        <v>400.8702639998937</v>
       </c>
     </row>
     <row r="18">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>297.4082721506724</v>
+        <v>291.3161090332464</v>
       </c>
     </row>
     <row r="19">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>366.6674155584701</v>
+        <v>357.4832349358489</v>
       </c>
     </row>
     <row r="20">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8004.604212507689</v>
+        <v>8450.06250854793</v>
       </c>
     </row>
     <row r="21">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6289.835566729719</v>
+        <v>6795.950224955565</v>
       </c>
     </row>
     <row r="22">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>501.7913948392476</v>
+        <v>583.1161621930662</v>
       </c>
     </row>
     <row r="23">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.320277923759254</v>
+        <v>9.679006470337336</v>
       </c>
     </row>
     <row r="24">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.289590116406062</v>
+        <v>8.935514107203272</v>
       </c>
     </row>
     <row r="25">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8800.593017900022</v>
+        <v>10896.80277894184</v>
       </c>
     </row>
     <row r="26">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>312.3521949479793</v>
+        <v>365.8142470532045</v>
       </c>
     </row>
     <row r="27">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>415.2428695165857</v>
+        <v>429.1680903236884</v>
       </c>
     </row>
     <row r="28">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.2597686133735</v>
+        <v>342.5511206428043</v>
       </c>
     </row>
     <row r="29">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.9389839950795</v>
+        <v>380.5842787266625</v>
       </c>
     </row>
     <row r="30">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7508.288398965865</v>
+        <v>9020.648874096267</v>
       </c>
     </row>
     <row r="31">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5690.837938864591</v>
+        <v>7137.689706500422</v>
       </c>
     </row>
     <row r="32">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>391.0048487230997</v>
+        <v>453.7696332590488</v>
       </c>
     </row>
     <row r="33">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.139888797620971</v>
+        <v>3.355401693045914</v>
       </c>
     </row>
     <row r="34">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.529030603797578</v>
+        <v>4.126684677001288</v>
       </c>
     </row>
     <row r="35">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5987.697568151651</v>
+        <v>9416.493280348977</v>
       </c>
     </row>
     <row r="36">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>243.7612721488433</v>
+        <v>285.6384736013999</v>
       </c>
     </row>
     <row r="37">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.5857708762709</v>
+        <v>440.185240793836</v>
       </c>
     </row>
     <row r="38">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>319.8083816793605</v>
+        <v>393.1152862828538</v>
       </c>
     </row>
     <row r="39">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>382.6407737930575</v>
+        <v>394.6544438075944</v>
       </c>
     </row>
     <row r="40">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5416.581918847181</v>
+        <v>8084.075674726693</v>
       </c>
     </row>
     <row r="41">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3800.787406690093</v>
+        <v>6091.64390474974</v>
       </c>
     </row>
     <row r="42">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>316.6093977510304</v>
+        <v>384.3683015169531</v>
       </c>
     </row>
     <row r="43">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2289873254061645</v>
+        <v>0.510897502830659</v>
       </c>
     </row>
     <row r="44">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3940606885191956</v>
+        <v>1.020112840649285</v>
       </c>
     </row>
     <row r="45">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3376.064880386568</v>
+        <v>5829.640393678452</v>
       </c>
     </row>
     <row r="46">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>196.9642575890532</v>
+        <v>240.8169340203973</v>
       </c>
     </row>
     <row r="47">
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>337.8282937207088</v>
+        <v>416.3593330252364</v>
       </c>
     </row>
     <row r="48">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>241.1801448566834</v>
+        <v>397.5279021368918</v>
       </c>
     </row>
     <row r="49">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>361.0937084881729</v>
+        <v>394.4266885634851</v>
       </c>
     </row>
     <row r="50">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3259.171469676743</v>
+        <v>5408.447498034035</v>
       </c>
     </row>
     <row r="51">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2106.837117701306</v>
+        <v>3690.410130220323</v>
       </c>
     </row>
     <row r="52">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29.57329014142363</v>
+        <v>248.6911997456437</v>
       </c>
     </row>
     <row r="53">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>802.7311293207023</v>
+        <v>2910.574456574024</v>
       </c>
     </row>
     <row r="54">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001838901479236337</v>
+        <v>0.001723506606598312</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1901749765911241</v>
+        <v>0.0999386822924043</v>
       </c>
     </row>
     <row r="56">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.002156794903076142</v>
+        <v>0.0007212227669770304</v>
       </c>
     </row>
     <row r="57">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1008677692652918</v>
+        <v>0.008109014215265269</v>
       </c>
     </row>
     <row r="58">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>793.8822596422729</v>
+        <v>1335.801034550841</v>
       </c>
     </row>
     <row r="59">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8071.298490865616</v>
+        <v>17997.84392445257</v>
       </c>
     </row>
     <row r="60">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>46.76161708191147</v>
+        <v>169.7289700497302</v>
       </c>
     </row>
     <row r="61">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>461.1797113629638</v>
+        <v>1481.408490416041</v>
       </c>
     </row>
     <row r="62">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>379.7079962628271</v>
+        <v>454.107836791723</v>
       </c>
     </row>
     <row r="63">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>421.2708759287376</v>
+        <v>857.9421227844281</v>
       </c>
     </row>
     <row r="64">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>318.4267785474393</v>
+        <v>1329.41642225668</v>
       </c>
     </row>
     <row r="65">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>286.304358909076</v>
+        <v>825.4456825878312</v>
       </c>
     </row>
     <row r="66">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>145.3439855646854</v>
+        <v>141.4591130111561</v>
       </c>
     </row>
     <row r="67">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1167.495991507957</v>
+        <v>2225.894040645836</v>
       </c>
     </row>
     <row r="68">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>241.7308347732352</v>
+        <v>2133.000149214482</v>
       </c>
     </row>
     <row r="69">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8515.838617971109</v>
+        <v>20516.80700831395</v>
       </c>
     </row>
     <row r="70">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>133.7884934023082</v>
+        <v>1131.683519592309</v>
       </c>
     </row>
     <row r="71">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5200.410758848906</v>
+        <v>12088.0471854107</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716.1129150390625</v>
+        <v>760.0974731445312</v>
       </c>
     </row>
     <row r="3">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.60794448852539</v>
+        <v>43.59261703491211</v>
       </c>
     </row>
     <row r="4">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.70957565307617</v>
+        <v>57.85834503173828</v>
       </c>
     </row>
     <row r="5">
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7228.7705078125</v>
+        <v>7666.21435546875</v>
       </c>
     </row>
     <row r="6">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.2276611328125</v>
+        <v>501.8543395996094</v>
       </c>
     </row>
     <row r="7">
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.1252136230469</v>
+        <v>325.8084716796875</v>
       </c>
     </row>
     <row r="8">
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.6345825195312</v>
+        <v>218.3721771240234</v>
       </c>
     </row>
     <row r="9">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>283.4525451660156</v>
+        <v>292.788330078125</v>
       </c>
     </row>
     <row r="10">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5669.57275390625</v>
+        <v>6014.009765625</v>
       </c>
     </row>
     <row r="11">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4700.83251953125</v>
+        <v>4958.72802734375</v>
       </c>
     </row>
     <row r="12">
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>691.4963989257812</v>
+        <v>730.4834594726562</v>
       </c>
     </row>
     <row r="13">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.06042098999023</v>
+        <v>42.8631591796875</v>
       </c>
     </row>
     <row r="14">
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.91162109375</v>
+        <v>58.09233093261719</v>
       </c>
     </row>
     <row r="15">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7284.0419921875</v>
+        <v>7605.322265625</v>
       </c>
     </row>
     <row r="16">
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>453.0636596679688</v>
+        <v>484.400390625</v>
       </c>
     </row>
     <row r="17">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.642578125</v>
+        <v>323.3715515136719</v>
       </c>
     </row>
     <row r="18">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>198.1284637451172</v>
+        <v>210.5787658691406</v>
       </c>
     </row>
     <row r="19">
@@ -5768,7 +5768,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>282.337646484375</v>
+        <v>290.2651977539062</v>
       </c>
     </row>
     <row r="20">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5706.3720703125</v>
+        <v>5966.98681640625</v>
       </c>
     </row>
     <row r="21">
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4702.68017578125</v>
+        <v>4933.953125</v>
       </c>
     </row>
     <row r="22">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.9393310546875</v>
+        <v>712.583251953125</v>
       </c>
     </row>
     <row r="23">
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.02665710449219</v>
+        <v>41.87214660644531</v>
       </c>
     </row>
     <row r="24">
@@ -5818,7 +5818,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.41213607788086</v>
+        <v>56.59713363647461</v>
       </c>
     </row>
     <row r="25">
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7273.095703125</v>
+        <v>7496.96533203125</v>
       </c>
     </row>
     <row r="26">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.7015991210938</v>
+        <v>471.4700927734375</v>
       </c>
     </row>
     <row r="27">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>308.5023803710938</v>
+        <v>320.5849609375</v>
       </c>
     </row>
     <row r="28">
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>196.3915557861328</v>
+        <v>207.19287109375</v>
       </c>
     </row>
     <row r="29">
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.0967407226562</v>
+        <v>288.2250671386719</v>
       </c>
     </row>
     <row r="30">
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5692.4248046875</v>
+        <v>5881.48388671875</v>
       </c>
     </row>
     <row r="31">
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4690.70263671875</v>
+        <v>4862.2978515625</v>
       </c>
     </row>
     <row r="32">
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>663.369140625</v>
+        <v>702.436767578125</v>
       </c>
     </row>
     <row r="33">
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.88816833496094</v>
+        <v>41.02253723144531</v>
       </c>
     </row>
     <row r="34">
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.20243072509766</v>
+        <v>55.54024887084961</v>
       </c>
     </row>
     <row r="35">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7252.19873046875</v>
+        <v>7375.25439453125</v>
       </c>
     </row>
     <row r="36">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>434.3286437988281</v>
+        <v>463.8942260742188</v>
       </c>
     </row>
     <row r="37">
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.3260498046875</v>
+        <v>317.7993469238281</v>
       </c>
     </row>
     <row r="38">
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>195.7984466552734</v>
+        <v>205.4497528076172</v>
       </c>
     </row>
     <row r="39">
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281.7012634277344</v>
+        <v>286.0846252441406</v>
       </c>
     </row>
     <row r="40">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5673.62939453125</v>
+        <v>5786.04443359375</v>
       </c>
     </row>
     <row r="41">
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4674.853515625</v>
+        <v>4784.4912109375</v>
       </c>
     </row>
     <row r="42">
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>646.004638671875</v>
+        <v>680.6845092773438</v>
       </c>
     </row>
     <row r="43">
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.54973983764648</v>
+        <v>40.35269165039062</v>
       </c>
     </row>
     <row r="44">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.91979598999023</v>
+        <v>54.05337905883789</v>
       </c>
     </row>
     <row r="45">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7240.31982421875</v>
+        <v>7285.83447265625</v>
       </c>
     </row>
     <row r="46">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>423.3344116210938</v>
+        <v>450.1187133789062</v>
       </c>
     </row>
     <row r="47">
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>307.8400573730469</v>
+        <v>314.8645324707031</v>
       </c>
     </row>
     <row r="48">
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>194.4080810546875</v>
+        <v>201.2467041015625</v>
       </c>
     </row>
     <row r="49">
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>281.2682800292969</v>
+        <v>284.107177734375</v>
       </c>
     </row>
     <row r="50">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5659.50830078125</v>
+        <v>5708.19580078125</v>
       </c>
     </row>
     <row r="51">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4662.62646484375</v>
+        <v>4719.96484375</v>
       </c>
     </row>
     <row r="52">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.66103553771973</v>
+        <v>15.87332344055176</v>
       </c>
     </row>
     <row r="53">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1186.123168945312</v>
+        <v>1184.028442382812</v>
       </c>
     </row>
     <row r="54">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.354342103004456</v>
+        <v>0.9788489937782288</v>
       </c>
     </row>
     <row r="55">
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>72.42991638183594</v>
+        <v>75.18512725830078</v>
       </c>
     </row>
     <row r="56">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.700214028358459</v>
+        <v>1.323666214942932</v>
       </c>
     </row>
     <row r="57">
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>97.18178558349609</v>
+        <v>95.16606903076172</v>
       </c>
     </row>
     <row r="58">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>540.757080078125</v>
+        <v>512.84130859375</v>
       </c>
     </row>
     <row r="59">
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13287.580078125</v>
+        <v>12656.8798828125</v>
       </c>
     </row>
     <row r="60">
@@ -6178,7 +6178,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>19.46838188171387</v>
+        <v>16.00018692016602</v>
       </c>
     </row>
     <row r="61">
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>782.9144897460938</v>
+        <v>777.1285400390625</v>
       </c>
     </row>
     <row r="62">
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>140.6502990722656</v>
+        <v>144.8725433349609</v>
       </c>
     </row>
     <row r="63">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>460.0144958496094</v>
+        <v>455.2154846191406</v>
       </c>
     </row>
     <row r="64">
@@ -6218,7 +6218,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.85705375671387</v>
+        <v>27.88955497741699</v>
       </c>
     </row>
     <row r="65">
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>346.4927062988281</v>
+        <v>336.5619812011719</v>
       </c>
     </row>
     <row r="66">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>152.2376251220703</v>
+        <v>151.6887359619141</v>
       </c>
     </row>
     <row r="67">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>401.5267028808594</v>
+        <v>395.8008728027344</v>
       </c>
     </row>
     <row r="68">
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>185.7896423339844</v>
+        <v>132.0544738769531</v>
       </c>
     </row>
     <row r="69">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10722.533203125</v>
+        <v>10031.3408203125</v>
       </c>
     </row>
     <row r="70">
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>164.4250183105469</v>
+        <v>113.0856094360352</v>
       </c>
     </row>
     <row r="71">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8809.1025390625</v>
+        <v>8304.314453125</v>
       </c>
     </row>
   </sheetData>

--- a/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
+++ b/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ann" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,8 +12,7 @@
     <sheet name="random_forest" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="knn" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="gam" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="svr" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="clefo" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="clefo" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -33,6 +32,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.9548950195312</v>
+        <v>708.6016235351562</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.05705642700195</v>
+        <v>32.98181915283203</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.19976425170898</v>
+        <v>51.12690734863281</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7787.01416015625</v>
+        <v>5718.66796875</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.8381652832031</v>
+        <v>467.3745422363281</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.6679992675781</v>
+        <v>277.2232360839844</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6503143310547</v>
+        <v>187.1058807373047</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>293.9083557128906</v>
+        <v>251.9397735595703</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6088.43017578125</v>
+        <v>4474.90966796875</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5062.68701171875</v>
+        <v>3672.422119140625</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>727.5432739257812</v>
+        <v>711.1922607421875</v>
       </c>
     </row>
     <row r="13">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.15463638305664</v>
+        <v>34.37942123413086</v>
       </c>
     </row>
     <row r="14">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.26637268066406</v>
+        <v>54.33779907226562</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7847.8779296875</v>
+        <v>5703.91796875</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.11474609375</v>
+        <v>462.7690124511719</v>
       </c>
     </row>
     <row r="17">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.1472778320312</v>
+        <v>275.7215270996094</v>
       </c>
     </row>
     <row r="18">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.8628845214844</v>
+        <v>172.2869415283203</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295.4661254882812</v>
+        <v>252.0970764160156</v>
       </c>
     </row>
     <row r="20">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6146.16259765625</v>
+        <v>4449.41943359375</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5079.158203125</v>
+        <v>3665.39599609375</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.4635009765625</v>
+        <v>694.8718872070312</v>
       </c>
     </row>
     <row r="23">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.16227722167969</v>
+        <v>34.36643218994141</v>
       </c>
     </row>
     <row r="24">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.62020492553711</v>
+        <v>54.63169479370117</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7935.51904296875</v>
+        <v>5714.41015625</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>471.2181701660156</v>
+        <v>449.3850402832031</v>
       </c>
     </row>
     <row r="27">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>338.3481140136719</v>
+        <v>275.4604187011719</v>
       </c>
     </row>
     <row r="28">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.5046691894531</v>
+        <v>166.8136138916016</v>
       </c>
     </row>
     <row r="29">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.8499450683594</v>
+        <v>252.6990814208984</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6207.685546875</v>
+        <v>4449.0673828125</v>
       </c>
     </row>
     <row r="31">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5130.60205078125</v>
+        <v>3655.52392578125</v>
       </c>
     </row>
     <row r="32">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>700.0659790039062</v>
+        <v>705.9689331054688</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.00111389160156</v>
+        <v>34.67137145996094</v>
       </c>
     </row>
     <row r="34">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.27933120727539</v>
+        <v>54.31547164916992</v>
       </c>
     </row>
     <row r="35">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8003.92333984375</v>
+        <v>5614.6943359375</v>
       </c>
     </row>
     <row r="36">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>464.3328247070312</v>
+        <v>459.4944763183594</v>
       </c>
     </row>
     <row r="37">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>339.0871887207031</v>
+        <v>275.8793640136719</v>
       </c>
     </row>
     <row r="38">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.3101348876953</v>
+        <v>166.9279632568359</v>
       </c>
     </row>
     <row r="39">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.1994323730469</v>
+        <v>252.0252075195312</v>
       </c>
     </row>
     <row r="40">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6265.5615234375</v>
+        <v>4407.94873046875</v>
       </c>
     </row>
     <row r="41">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5173.130859375</v>
+        <v>3631.95703125</v>
       </c>
     </row>
     <row r="42">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>682.9404907226562</v>
+        <v>695.8314208984375</v>
       </c>
     </row>
     <row r="43">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.52840423583984</v>
+        <v>34.66787719726562</v>
       </c>
     </row>
     <row r="44">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.8137092590332</v>
+        <v>54.22970962524414</v>
       </c>
     </row>
     <row r="45">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8088.3984375</v>
+        <v>5659.89208984375</v>
       </c>
     </row>
     <row r="46">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>454.4830322265625</v>
+        <v>449.7799377441406</v>
       </c>
     </row>
     <row r="47">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>339.1406860351562</v>
+        <v>276.4302978515625</v>
       </c>
     </row>
     <row r="48">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>218.9806060791016</v>
+        <v>165.6121673583984</v>
       </c>
     </row>
     <row r="49">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>299.6656188964844</v>
+        <v>251.9374847412109</v>
       </c>
     </row>
     <row r="50">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6323.7490234375</v>
+        <v>4410.3203125</v>
       </c>
     </row>
     <row r="51">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5222.57177734375</v>
+        <v>3628.138427734375</v>
       </c>
     </row>
     <row r="52">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.15810012817383</v>
+        <v>26.18135643005371</v>
       </c>
     </row>
     <row r="53">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1315.465454101562</v>
+        <v>1930.016235351562</v>
       </c>
     </row>
     <row r="54">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.632960915565491</v>
+        <v>1.328572392463684</v>
       </c>
     </row>
     <row r="55">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.91005706787109</v>
+        <v>98.43114471435547</v>
       </c>
     </row>
     <row r="56">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.698256015777588</v>
+        <v>2.161287784576416</v>
       </c>
     </row>
     <row r="57">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.69310760498047</v>
+        <v>152.33935546875</v>
       </c>
     </row>
     <row r="58">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>489.7309875488281</v>
+        <v>457.154296875</v>
       </c>
     </row>
     <row r="59">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15470.693359375</v>
+        <v>15353.0517578125</v>
       </c>
     </row>
     <row r="60">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.48176193237305</v>
+        <v>18.61477661132812</v>
       </c>
     </row>
     <row r="61">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>861.0003051757812</v>
+        <v>1228.146240234375</v>
       </c>
     </row>
     <row r="62">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>147.7611236572266</v>
+        <v>135.5176544189453</v>
       </c>
     </row>
     <row r="63">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>520.5667114257812</v>
+        <v>541.8059692382812</v>
       </c>
     </row>
     <row r="64">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>29.28761100769043</v>
+        <v>22.28443145751953</v>
       </c>
     </row>
     <row r="65">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>403.0198364257812</v>
+        <v>425.2686157226562</v>
       </c>
     </row>
     <row r="66">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>149.0675964355469</v>
+        <v>147.23974609375</v>
       </c>
     </row>
     <row r="67">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>444.2067565917969</v>
+        <v>452.4682006835938</v>
       </c>
     </row>
     <row r="68">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>210.5339813232422</v>
+        <v>173.4080963134766</v>
       </c>
     </row>
     <row r="69">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12310.5390625</v>
+        <v>12265.2578125</v>
       </c>
     </row>
     <row r="70">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>176.3540191650391</v>
+        <v>144.0300903320312</v>
       </c>
     </row>
     <row r="71">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10142.78515625</v>
+        <v>10120.05859375</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>732.1133217581624</v>
+        <v>675.5663558306217</v>
       </c>
     </row>
     <row r="3">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.36028099278842</v>
+        <v>35.39422696878079</v>
       </c>
     </row>
     <row r="4">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.92405937297153</v>
+        <v>53.92237916667253</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7442.555882988552</v>
+        <v>6187.891264306865</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510.9110842818387</v>
+        <v>484.0232810053719</v>
       </c>
     </row>
     <row r="7">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.9680426038469</v>
+        <v>285.5319760485817</v>
       </c>
     </row>
     <row r="8">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.9791512914327</v>
+        <v>186.2691060807945</v>
       </c>
     </row>
     <row r="9">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299.6615155501319</v>
+        <v>263.2071106118091</v>
       </c>
     </row>
     <row r="10">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6128.868487051556</v>
+        <v>4819.341284812192</v>
       </c>
     </row>
     <row r="11">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4978.825320041145</v>
+        <v>3993.233481741532</v>
       </c>
     </row>
     <row r="12">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.5853830699818</v>
+        <v>695.7368686665045</v>
       </c>
     </row>
     <row r="13">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.25408425928322</v>
+        <v>36.69502979068449</v>
       </c>
     </row>
     <row r="14">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.01344234782579</v>
+        <v>54.9177833371456</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7434.625020260964</v>
+        <v>6266.379789971902</v>
       </c>
     </row>
     <row r="16">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0943304852517</v>
+        <v>473.6341233798599</v>
       </c>
     </row>
     <row r="17">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.552601610586</v>
+        <v>287.7585392468046</v>
       </c>
     </row>
     <row r="18">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>220.1071968074526</v>
+        <v>175.859485810292</v>
       </c>
     </row>
     <row r="19">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>299.6523220502613</v>
+        <v>264.1836579485135</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6118.051304227125</v>
+        <v>4885.980609237401</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4972.565392754167</v>
+        <v>4058.469677963251</v>
       </c>
     </row>
     <row r="22">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.8314882160515</v>
+        <v>695.3369869364179</v>
       </c>
     </row>
     <row r="23">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.99229706960283</v>
+        <v>37.2049909980377</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.43803819690496</v>
+        <v>54.37208033544519</v>
       </c>
     </row>
     <row r="25">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7435.717809422262</v>
+        <v>6264.377431088565</v>
       </c>
     </row>
     <row r="26">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>485.2436314104908</v>
+        <v>458.5850007226089</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>333.5619646557677</v>
+        <v>290.1954553025475</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.3131977325302</v>
+        <v>173.6624344775295</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>299.648047412304</v>
+        <v>264.4604759583111</v>
       </c>
     </row>
     <row r="30">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6118.233474689065</v>
+        <v>4896.57956590409</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4974.569530616444</v>
+        <v>4054.165590087413</v>
       </c>
     </row>
     <row r="32">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>715.0857753067796</v>
+        <v>703.9353270588784</v>
       </c>
     </row>
     <row r="33">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.09632376084575</v>
+        <v>37.78796242169479</v>
       </c>
     </row>
     <row r="34">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.65721798737773</v>
+        <v>53.99094627578738</v>
       </c>
     </row>
     <row r="35">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7442.555882988552</v>
+        <v>6254.091948926573</v>
       </c>
     </row>
     <row r="36">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>475.0241772004625</v>
+        <v>461.8625307101012</v>
       </c>
     </row>
     <row r="37">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>333.578468797672</v>
+        <v>292.0307017827353</v>
       </c>
     </row>
     <row r="38">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.4473972410901</v>
+        <v>176.0026699834533</v>
       </c>
     </row>
     <row r="39">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>299.6572407810266</v>
+        <v>264.5134731369752</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6123.413683219335</v>
+        <v>4904.616744703711</v>
       </c>
     </row>
     <row r="41">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4977.686077015368</v>
+        <v>4064.315591651889</v>
       </c>
     </row>
     <row r="42">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>697.7440032128787</v>
+        <v>697.5384151726159</v>
       </c>
     </row>
     <row r="43">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.0465626490264</v>
+        <v>37.93030523763822</v>
       </c>
     </row>
     <row r="44">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.01511103581366</v>
+        <v>54.52565577612459</v>
       </c>
     </row>
     <row r="45">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7433.573017725581</v>
+        <v>6261.632183868207</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464.2853714200281</v>
+        <v>461.9850641607088</v>
       </c>
     </row>
     <row r="47">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>333.5496103210544</v>
+        <v>291.092089295802</v>
       </c>
     </row>
     <row r="48">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>214.2577581969487</v>
+        <v>174.1488304510271</v>
       </c>
     </row>
     <row r="49">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>299.648047412304</v>
+        <v>264.5701910331797</v>
       </c>
     </row>
     <row r="50">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6117.763478090195</v>
+        <v>4881.932473217413</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4972.014702912228</v>
+        <v>4058.882986668717</v>
       </c>
     </row>
     <row r="52">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.55998534267962</v>
+        <v>27.81327939995498</v>
       </c>
     </row>
     <row r="53">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1241.568965685356</v>
+        <v>1947.809736062749</v>
       </c>
     </row>
     <row r="54">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6593539557211646</v>
+        <v>1.35911397442416</v>
       </c>
     </row>
     <row r="55">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>86.26871616241012</v>
+        <v>104.1018714348573</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.267568405794226</v>
+        <v>2.502398318573967</v>
       </c>
     </row>
     <row r="57">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>107.6805797822752</v>
+        <v>150.2828936464304</v>
       </c>
     </row>
     <row r="58">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>340.6082437766621</v>
+        <v>464.567453093686</v>
       </c>
     </row>
     <row r="59">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15194.54367871735</v>
+        <v>16626.51007058938</v>
       </c>
     </row>
     <row r="60">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.71483635888364</v>
+        <v>19.23341030530757</v>
       </c>
     </row>
     <row r="61">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>827.4906999664578</v>
+        <v>1255.37356864821</v>
       </c>
     </row>
     <row r="62">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>145.8495286903125</v>
+        <v>142.785254540465</v>
       </c>
     </row>
     <row r="63">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>511.3879263721379</v>
+        <v>571.8399090479501</v>
       </c>
     </row>
     <row r="64">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.62106237923896</v>
+        <v>24.74817001719975</v>
       </c>
     </row>
     <row r="65">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>396.0895253537402</v>
+        <v>455.149366288411</v>
       </c>
     </row>
     <row r="66">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>148.0230142476622</v>
+        <v>147.9392324874287</v>
       </c>
     </row>
     <row r="67">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>444.0940059654172</v>
+        <v>474.615590281712</v>
       </c>
     </row>
     <row r="68">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>110.2808120548954</v>
+        <v>206.8419022488675</v>
       </c>
     </row>
     <row r="69">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12169.88430304586</v>
+        <v>13337.41397363826</v>
       </c>
     </row>
     <row r="70">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>96.39373167149529</v>
+        <v>174.5414946316304</v>
       </c>
     </row>
     <row r="71">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10048.63662757153</v>
+        <v>11022.92510334534</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.1180419921875</v>
+        <v>693.936767578125</v>
       </c>
     </row>
     <row r="3">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.85398483276367</v>
+        <v>33.59513092041016</v>
       </c>
     </row>
     <row r="4">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.69758605957031</v>
+        <v>50.79084014892578</v>
       </c>
     </row>
     <row r="5">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7872.8408203125</v>
+        <v>5607.390625</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.8665161132812</v>
+        <v>471.2958984375</v>
       </c>
     </row>
     <row r="7">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.0531616210938</v>
+        <v>275.7445678710938</v>
       </c>
     </row>
     <row r="8">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.2816772460938</v>
+        <v>182.8265686035156</v>
       </c>
     </row>
     <row r="9">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.9801330566406</v>
+        <v>250.4725189208984</v>
       </c>
     </row>
     <row r="10">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6144.31103515625</v>
+        <v>4357.6376953125</v>
       </c>
     </row>
     <row r="11">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5079.43896484375</v>
+        <v>3639.3388671875</v>
       </c>
     </row>
     <row r="12">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>742.80810546875</v>
+        <v>714.88525390625</v>
       </c>
     </row>
     <row r="13">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.67616271972656</v>
+        <v>35.0926628112793</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.62888717651367</v>
+        <v>52.69204330444336</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7918.80419921875</v>
+        <v>5599.25146484375</v>
       </c>
     </row>
     <row r="16">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.4749755859375</v>
+        <v>456.5913696289062</v>
       </c>
     </row>
     <row r="17">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>331.9440612792969</v>
+        <v>274.9298706054688</v>
       </c>
     </row>
     <row r="18">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>215.1405792236328</v>
+        <v>171.7573852539062</v>
       </c>
     </row>
     <row r="19">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295.2943115234375</v>
+        <v>248.7786254882812</v>
       </c>
     </row>
     <row r="20">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6205.904296875</v>
+        <v>4332.794921875</v>
       </c>
     </row>
     <row r="21">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5134.64990234375</v>
+        <v>3593.041015625</v>
       </c>
     </row>
     <row r="22">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>720.7529907226562</v>
+        <v>697.64599609375</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.11503601074219</v>
+        <v>35.12996292114258</v>
       </c>
     </row>
     <row r="24">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58.56322479248047</v>
+        <v>53.95027923583984</v>
       </c>
     </row>
     <row r="25">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7914.50830078125</v>
+        <v>5513.810546875</v>
       </c>
     </row>
     <row r="26">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.53515625</v>
+        <v>449.7790832519531</v>
       </c>
     </row>
     <row r="27">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>330.1887817382812</v>
+        <v>274.1940002441406</v>
       </c>
     </row>
     <row r="28">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>214.1634826660156</v>
+        <v>166.1861572265625</v>
       </c>
     </row>
     <row r="29">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.1854248046875</v>
+        <v>247.2121124267578</v>
       </c>
     </row>
     <row r="30">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6207.62646484375</v>
+        <v>4386.7333984375</v>
       </c>
     </row>
     <row r="31">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5130.58740234375</v>
+        <v>3630.302001953125</v>
       </c>
     </row>
     <row r="32">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>721.0833740234375</v>
+        <v>713.6771850585938</v>
       </c>
     </row>
     <row r="33">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.7468147277832</v>
+        <v>34.93519973754883</v>
       </c>
     </row>
     <row r="34">
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.05190277099609</v>
+        <v>53.44686126708984</v>
       </c>
     </row>
     <row r="35">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7891.36962890625</v>
+        <v>5625.90771484375</v>
       </c>
     </row>
     <row r="36">
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>475.5486450195312</v>
+        <v>463.091064453125</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.3031005859375</v>
+        <v>276.7723083496094</v>
       </c>
     </row>
     <row r="38">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.4044647216797</v>
+        <v>173.8489685058594</v>
       </c>
     </row>
     <row r="39">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>296.1813354492188</v>
+        <v>249.9393463134766</v>
       </c>
     </row>
     <row r="40">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6188.3330078125</v>
+        <v>4396.80224609375</v>
       </c>
     </row>
     <row r="41">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5108.92822265625</v>
+        <v>3639.783203125</v>
       </c>
     </row>
     <row r="42">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>706.8828125</v>
+        <v>701.703369140625</v>
       </c>
     </row>
     <row r="43">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.3195915222168</v>
+        <v>35.60113525390625</v>
       </c>
     </row>
     <row r="44">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.57792282104492</v>
+        <v>53.92708969116211</v>
       </c>
     </row>
     <row r="45">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7896.158203125</v>
+        <v>5593.466796875</v>
       </c>
     </row>
     <row r="46">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>466.6205444335938</v>
+        <v>457.8500366210938</v>
       </c>
     </row>
     <row r="47">
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>328.4996032714844</v>
+        <v>274.0478210449219</v>
       </c>
     </row>
     <row r="48">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>211.0957946777344</v>
+        <v>168.7397155761719</v>
       </c>
     </row>
     <row r="49">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>295.6739196777344</v>
+        <v>248.7906951904297</v>
       </c>
     </row>
     <row r="50">
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6191.33154296875</v>
+        <v>4385.9638671875</v>
       </c>
     </row>
     <row r="51">
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5100.62744140625</v>
+        <v>3633.852294921875</v>
       </c>
     </row>
     <row r="52">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9.109942436218262</v>
+        <v>58.1837043762207</v>
       </c>
     </row>
     <row r="53">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1224.920166015625</v>
+        <v>2248.9619140625</v>
       </c>
     </row>
     <row r="54">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.532173752784729</v>
+        <v>2.820216655731201</v>
       </c>
     </row>
     <row r="55">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>85.32498931884766</v>
+        <v>108.3819274902344</v>
       </c>
     </row>
     <row r="56">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8080381155014038</v>
+        <v>4.536571979522705</v>
       </c>
     </row>
     <row r="57">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.04320526123047</v>
+        <v>175.7614288330078</v>
       </c>
     </row>
     <row r="58">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>361.5394897460938</v>
+        <v>667.8003540039062</v>
       </c>
     </row>
     <row r="59">
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15039.36328125</v>
+        <v>17046.578125</v>
       </c>
     </row>
     <row r="60">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.659568786621094</v>
+        <v>38.35880661010742</v>
       </c>
     </row>
     <row r="61">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>800.4030151367188</v>
+        <v>1483.494750976562</v>
       </c>
     </row>
     <row r="62">
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>139.1225433349609</v>
+        <v>145.1612548828125</v>
       </c>
     </row>
     <row r="63">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>487.5586853027344</v>
+        <v>592.8958740234375</v>
       </c>
     </row>
     <row r="64">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>22.68127632141113</v>
+        <v>26.28183174133301</v>
       </c>
     </row>
     <row r="65">
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>384.67626953125</v>
+        <v>476.700439453125</v>
       </c>
     </row>
     <row r="66">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>147.6239318847656</v>
+        <v>151.3182678222656</v>
       </c>
     </row>
     <row r="67">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>434.7213134765625</v>
+        <v>480.9235534667969</v>
       </c>
     </row>
     <row r="68">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>74.13086700439453</v>
+        <v>329.7392578125</v>
       </c>
     </row>
     <row r="69">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11844.7109375</v>
+        <v>13562.4794921875</v>
       </c>
     </row>
     <row r="70">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60.75808715820312</v>
+        <v>274.9504699707031</v>
       </c>
     </row>
     <row r="71">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9825.0341796875</v>
+        <v>11221.67578125</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.0865043718316</v>
+        <v>702.7679577098043</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.36864878199595</v>
+        <v>35.23299831411786</v>
       </c>
     </row>
     <row r="4">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.88547353527941</v>
+        <v>54.6809709039385</v>
       </c>
     </row>
     <row r="5">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7861.974417943623</v>
+        <v>5807.467262212046</v>
       </c>
     </row>
     <row r="6">
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>483.4342474437279</v>
+        <v>460.4449394234487</v>
       </c>
     </row>
     <row r="7">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.37133939106</v>
+        <v>278.4801012517821</v>
       </c>
     </row>
     <row r="8">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.8979438049221</v>
+        <v>173.7543976505187</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>296.2458903970086</v>
+        <v>254.3925514223687</v>
       </c>
     </row>
     <row r="10">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6180.058646074726</v>
+        <v>4542.09595362724</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5100.626263809114</v>
+        <v>3757.807855368438</v>
       </c>
     </row>
     <row r="12">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>711.7516560685549</v>
+        <v>702.9565592658872</v>
       </c>
     </row>
     <row r="13">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.66237850564231</v>
+        <v>36.39852294282812</v>
       </c>
     </row>
     <row r="14">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.19666034161112</v>
+        <v>55.56666261449352</v>
       </c>
     </row>
     <row r="15">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7860.158583713692</v>
+        <v>5822.756819902848</v>
       </c>
     </row>
     <row r="16">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.9070573131766</v>
+        <v>459.055488285288</v>
       </c>
     </row>
     <row r="17">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.9326846553332</v>
+        <v>280.3044710663864</v>
       </c>
     </row>
     <row r="18">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>214.2655603620674</v>
+        <v>169.4271882048589</v>
       </c>
     </row>
     <row r="19">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295.5609554992419</v>
+        <v>255.0132419405337</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6171.114547611825</v>
+        <v>4555.187293235302</v>
       </c>
     </row>
     <row r="21">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5095.579857653584</v>
+        <v>3766.974073228401</v>
       </c>
     </row>
     <row r="22">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>698.1674584763018</v>
+        <v>700.8499636740261</v>
       </c>
     </row>
     <row r="23">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.26654974505059</v>
+        <v>36.93234021014582</v>
       </c>
     </row>
     <row r="24">
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.23931628071381</v>
+        <v>55.03455213571811</v>
       </c>
     </row>
     <row r="25">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7846.741401732513</v>
+        <v>5844.659889406123</v>
       </c>
     </row>
     <row r="26">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>461.3413591290907</v>
+        <v>457.6326189325177</v>
       </c>
     </row>
     <row r="27">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>332.2488769934763</v>
+        <v>282.9091491239722</v>
       </c>
     </row>
     <row r="28">
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.3190306490219</v>
+        <v>170.2920252938492</v>
       </c>
     </row>
     <row r="29">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295.2587301606927</v>
+        <v>255.5757863950767</v>
       </c>
     </row>
     <row r="30">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6158.210490966749</v>
+        <v>4572.831913107587</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5084.70842501139</v>
+        <v>3780.949404248792</v>
       </c>
     </row>
     <row r="32">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>685.8670695395289</v>
+        <v>696.9428568324098</v>
       </c>
     </row>
     <row r="33">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.88624051059498</v>
+        <v>37.18391387813782</v>
       </c>
     </row>
     <row r="34">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.39354350576418</v>
+        <v>54.56474486620658</v>
       </c>
     </row>
     <row r="35">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7838.301896440801</v>
+        <v>5862.691423245189</v>
       </c>
     </row>
     <row r="36">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>453.8094208113199</v>
+        <v>455.4598031502235</v>
       </c>
     </row>
     <row r="37">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.6032809194966</v>
+        <v>284.1836185578</v>
       </c>
     </row>
     <row r="38">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.6415888794845</v>
+        <v>170.8757769555207</v>
       </c>
     </row>
     <row r="39">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>295.0511170215038</v>
+        <v>255.9756778649831</v>
       </c>
     </row>
     <row r="40">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6149.337135543738</v>
+        <v>4586.562513742404</v>
       </c>
     </row>
     <row r="41">
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5077.221772897135</v>
+        <v>3791.921494184312</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>672.1804314917139</v>
+        <v>692.9026647798272</v>
       </c>
     </row>
     <row r="43">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.51100695743798</v>
+        <v>37.37199421266499</v>
       </c>
     </row>
     <row r="44">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.38206959088152</v>
+        <v>54.17838068869982</v>
       </c>
     </row>
     <row r="45">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7834.804792059113</v>
+        <v>5864.43023691909</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>445.0656924476085</v>
+        <v>452.7970995922919</v>
       </c>
     </row>
     <row r="47">
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>330.8319552728197</v>
+        <v>284.822464084028</v>
       </c>
     </row>
     <row r="48">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>211.7983882083976</v>
+        <v>170.8099234924582</v>
       </c>
     </row>
     <row r="49">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>294.881936738198</v>
+        <v>256.0758116298654</v>
       </c>
     </row>
     <row r="50">
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6144.548288379263</v>
+        <v>4587.725511238631</v>
       </c>
     </row>
     <row r="51">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5073.014014524916</v>
+        <v>3792.534393063269</v>
       </c>
     </row>
     <row r="52">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14.55550977640556</v>
+        <v>47.71570558906889</v>
       </c>
     </row>
     <row r="53">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1310.133835000106</v>
+        <v>2222.049072633112</v>
       </c>
     </row>
     <row r="54">
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9881853079289358</v>
+        <v>2.25343292699545</v>
       </c>
     </row>
     <row r="55">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>88.94604359830554</v>
+        <v>104.9390024490857</v>
       </c>
     </row>
     <row r="56">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.170453181767594</v>
+        <v>3.739342068602475</v>
       </c>
     </row>
     <row r="57">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>105.3518797536706</v>
+        <v>174.135569687553</v>
       </c>
     </row>
     <row r="58">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>423.5233848439241</v>
+        <v>555.2919676756181</v>
       </c>
     </row>
     <row r="59">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15133.48652031591</v>
+        <v>16241.44972315394</v>
       </c>
     </row>
     <row r="60">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12.96515412618448</v>
+        <v>32.27629487093014</v>
       </c>
     </row>
     <row r="61">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>866.1280700924727</v>
+        <v>1438.043629422264</v>
       </c>
     </row>
     <row r="62">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>143.3057397725607</v>
+        <v>138.5462715462847</v>
       </c>
     </row>
     <row r="63">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>512.854218611675</v>
+        <v>575.8280370194926</v>
       </c>
     </row>
     <row r="64">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24.7520142454265</v>
+        <v>24.50856930382382</v>
       </c>
     </row>
     <row r="65">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>394.3570920702635</v>
+        <v>461.9117280999615</v>
       </c>
     </row>
     <row r="66">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>148.1983863134559</v>
+        <v>149.1021628896875</v>
       </c>
     </row>
     <row r="67">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>440.1231270195361</v>
+        <v>466.7047320120836</v>
       </c>
     </row>
     <row r="68">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>133.525723026273</v>
+        <v>279.7554333209354</v>
       </c>
     </row>
     <row r="69">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12018.58061083815</v>
+        <v>13027.7922855922</v>
       </c>
     </row>
     <row r="70">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>110.2634263415566</v>
+        <v>231.4758985864158</v>
       </c>
     </row>
     <row r="71">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9924.753432358935</v>
+        <v>10779.48653259972</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>816.8767443758658</v>
+        <v>776.3465328125071</v>
       </c>
     </row>
     <row r="3">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.16735825881305</v>
+        <v>33.88877235865604</v>
       </c>
     </row>
     <row r="4">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.71496811880463</v>
+        <v>56.82650429402173</v>
       </c>
     </row>
     <row r="5">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7870.144670778868</v>
+        <v>5300.437815697343</v>
       </c>
     </row>
     <row r="6">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>535.7261471994732</v>
+        <v>503.2065354883719</v>
       </c>
     </row>
     <row r="7">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335.5774699012516</v>
+        <v>271.8259704037683</v>
       </c>
     </row>
     <row r="8">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.8479347145346</v>
+        <v>172.0475735835682</v>
       </c>
     </row>
     <row r="9">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.7112493434763</v>
+        <v>244.9007485958608</v>
       </c>
     </row>
     <row r="10">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6193.593493491417</v>
+        <v>4149.911884298884</v>
       </c>
     </row>
     <row r="11">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5117.917769403903</v>
+        <v>3436.618126823891</v>
       </c>
     </row>
     <row r="12">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.2070573481162</v>
+        <v>763.8928924759524</v>
       </c>
     </row>
     <row r="13">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.43628490836347</v>
+        <v>34.02246149713289</v>
       </c>
     </row>
     <row r="14">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.02958734768382</v>
+        <v>59.27161540641166</v>
       </c>
     </row>
     <row r="15">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8063.238582758333</v>
+        <v>5367.45420825912</v>
       </c>
     </row>
     <row r="16">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.9349703666711</v>
+        <v>493.7244645501292</v>
       </c>
     </row>
     <row r="17">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.8208346830304</v>
+        <v>271.7305978929988</v>
       </c>
     </row>
     <row r="18">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>224.1113281148008</v>
+        <v>161.8176611538815</v>
       </c>
     </row>
     <row r="19">
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300.0442103858646</v>
+        <v>245.9691246859428</v>
       </c>
     </row>
     <row r="20">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6350.17947546637</v>
+        <v>4202.266147802651</v>
       </c>
     </row>
     <row r="21">
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5246.011948848677</v>
+        <v>3478.720728207509</v>
       </c>
     </row>
     <row r="22">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>860.5234225232274</v>
+        <v>776.3169442605617</v>
       </c>
     </row>
     <row r="23">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.79536756285791</v>
+        <v>34.0357024861605</v>
       </c>
     </row>
     <row r="24">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67.5004394234292</v>
+        <v>59.88695014780447</v>
       </c>
     </row>
     <row r="25">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8143.386369385737</v>
+        <v>5341.284376962699</v>
       </c>
     </row>
     <row r="26">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>563.8286807124417</v>
+        <v>501.3563010862504</v>
       </c>
     </row>
     <row r="27">
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>343.0002407675514</v>
+        <v>271.9332045649687</v>
       </c>
     </row>
     <row r="28">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>226.3942606512308</v>
+        <v>162.1498210419813</v>
       </c>
     </row>
     <row r="29">
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.5790797343686</v>
+        <v>245.4258235787073</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6417.393078269995</v>
+        <v>4183.184645399268</v>
       </c>
     </row>
     <row r="31">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5302.410452771909</v>
+        <v>3463.520804817353</v>
       </c>
     </row>
     <row r="32">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>881.398620617666</v>
+        <v>827.4455984094818</v>
       </c>
     </row>
     <row r="33">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.20767026462403</v>
+        <v>36.56559514469672</v>
       </c>
     </row>
     <row r="34">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.59769584661402</v>
+        <v>64.01072854285614</v>
       </c>
     </row>
     <row r="35">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8000.824452391193</v>
+        <v>5719.851803727227</v>
       </c>
     </row>
     <row r="36">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>576.1911946706724</v>
+        <v>535.2051680163489</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>342.0362275693473</v>
+        <v>278.2827794396997</v>
       </c>
     </row>
     <row r="38">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.9557017858819</v>
+        <v>172.6801495305218</v>
       </c>
     </row>
     <row r="39">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.8511308861228</v>
+        <v>253.3299926066918</v>
       </c>
     </row>
     <row r="40">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6307.007602641549</v>
+        <v>4490.366995212748</v>
       </c>
     </row>
     <row r="41">
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5212.324099612391</v>
+        <v>3717.4964437714</v>
       </c>
     </row>
     <row r="42">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>867.7107702935308</v>
+        <v>844.4372106288381</v>
       </c>
     </row>
     <row r="43">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.67564906302879</v>
+        <v>36.77582529658132</v>
       </c>
     </row>
     <row r="44">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.54348364060411</v>
+        <v>66.7005970383839</v>
       </c>
     </row>
     <row r="45">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8029.952522294572</v>
+        <v>5895.432936494567</v>
       </c>
     </row>
     <row r="46">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>567.7967003889562</v>
+        <v>546.2577414126015</v>
       </c>
     </row>
     <row r="47">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>342.4635909684081</v>
+        <v>280.4794004802361</v>
       </c>
     </row>
     <row r="48">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>225.0029285723265</v>
+        <v>174.7070298408788</v>
       </c>
     </row>
     <row r="49">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>299.5186323924043</v>
+        <v>256.684637091378</v>
       </c>
     </row>
     <row r="50">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6328.809694220271</v>
+        <v>4630.759654323883</v>
       </c>
     </row>
     <row r="51">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5229.397036741365</v>
+        <v>3834.289756139558</v>
       </c>
     </row>
     <row r="52">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51.03727134222724</v>
+        <v>58.67739425512776</v>
       </c>
     </row>
     <row r="53">
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1586.070288615511</v>
+        <v>2238.775864048722</v>
       </c>
     </row>
     <row r="54">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.983473096429088</v>
+        <v>2.570364128501473</v>
       </c>
     </row>
     <row r="55">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>92.71651698226111</v>
+        <v>98.06961003901151</v>
       </c>
     </row>
     <row r="56">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.050124005057489</v>
+        <v>4.711605431720875</v>
       </c>
     </row>
     <row r="57">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>125.8645139266146</v>
+        <v>179.7664783066905</v>
       </c>
     </row>
     <row r="58">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>685.4393576884297</v>
+        <v>627.3115388349762</v>
       </c>
     </row>
     <row r="59">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15001.9083103243</v>
+        <v>16070.80745161189</v>
       </c>
     </row>
     <row r="60">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35.19722671242425</v>
+        <v>38.94677010481447</v>
       </c>
     </row>
     <row r="61">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1038.08320811484</v>
+        <v>1447.145931449757</v>
       </c>
     </row>
     <row r="62">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>147.7556084357325</v>
+        <v>131.6133317075754</v>
       </c>
     </row>
     <row r="63">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>522.053875694943</v>
+        <v>564.5348484309053</v>
       </c>
     </row>
     <row r="64">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30.25295263836945</v>
+        <v>22.54812430981681</v>
       </c>
     </row>
     <row r="65">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>404.8241414038123</v>
+        <v>455.9215381064186</v>
       </c>
     </row>
     <row r="66">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>152.5844782930201</v>
+        <v>150.6689958670032</v>
       </c>
     </row>
     <row r="67">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>439.0828312079901</v>
+        <v>461.3476506037151</v>
       </c>
     </row>
     <row r="68">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>384.6762123874286</v>
+        <v>337.7855618073626</v>
       </c>
     </row>
     <row r="69">
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11954.46964853793</v>
+        <v>12887.86205655979</v>
       </c>
     </row>
     <row r="70">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>317.8771536187072</v>
+        <v>279.6674922573239</v>
       </c>
     </row>
     <row r="71">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9878.574922306931</v>
+        <v>10670.42665361735</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>666.7116677363324</v>
+        <v>875.2221880301479</v>
       </c>
     </row>
     <row r="3">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.47246870067185</v>
+        <v>41.29651329378769</v>
       </c>
     </row>
     <row r="4">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.29337673982876</v>
+        <v>66.14501501304365</v>
       </c>
     </row>
     <row r="5">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6733.310948694922</v>
+        <v>6872.568392487256</v>
       </c>
     </row>
     <row r="6">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440.5037805966199</v>
+        <v>573.2485783867484</v>
       </c>
     </row>
     <row r="7">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306.2290623025789</v>
+        <v>313.6926751713485</v>
       </c>
     </row>
     <row r="8">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.9165845058161</v>
+        <v>209.483041172018</v>
       </c>
     </row>
     <row r="9">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276.9202450502161</v>
+        <v>277.8573107869353</v>
       </c>
     </row>
     <row r="10">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5270.288015037889</v>
+        <v>5406.180683529292</v>
       </c>
     </row>
     <row r="11">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4353.006810472298</v>
+        <v>4475.183350899528</v>
       </c>
     </row>
     <row r="12">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>666.7116677363324</v>
+        <v>875.2221880301479</v>
       </c>
     </row>
     <row r="13">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.47246870067185</v>
+        <v>41.29651329378769</v>
       </c>
     </row>
     <row r="14">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.29337673982876</v>
+        <v>66.14501501304365</v>
       </c>
     </row>
     <row r="15">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6733.310948694922</v>
+        <v>6872.568392487256</v>
       </c>
     </row>
     <row r="16">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.5037805966199</v>
+        <v>573.2485783867484</v>
       </c>
     </row>
     <row r="17">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>306.2290623025789</v>
+        <v>313.6926751713485</v>
       </c>
     </row>
     <row r="18">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>198.9165845058161</v>
+        <v>209.483041172018</v>
       </c>
     </row>
     <row r="19">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>276.9202450502161</v>
+        <v>277.8573107869353</v>
       </c>
     </row>
     <row r="20">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5270.288015037889</v>
+        <v>5406.180683529292</v>
       </c>
     </row>
     <row r="21">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4353.006810472298</v>
+        <v>4475.183350899528</v>
       </c>
     </row>
     <row r="22">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>666.7116677363324</v>
+        <v>875.2221880301479</v>
       </c>
     </row>
     <row r="23">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.47246870067185</v>
+        <v>41.29651329378769</v>
       </c>
     </row>
     <row r="24">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48.29337673982876</v>
+        <v>66.14501501304365</v>
       </c>
     </row>
     <row r="25">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6733.310948694922</v>
+        <v>6872.568392487256</v>
       </c>
     </row>
     <row r="26">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>440.5037805966199</v>
+        <v>573.2485783867484</v>
       </c>
     </row>
     <row r="27">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>306.2290623025789</v>
+        <v>313.6926751713485</v>
       </c>
     </row>
     <row r="28">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.9165845058161</v>
+        <v>209.483041172018</v>
       </c>
     </row>
     <row r="29">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.9202450502161</v>
+        <v>277.8573107869353</v>
       </c>
     </row>
     <row r="30">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5270.288015037889</v>
+        <v>5406.180683529292</v>
       </c>
     </row>
     <row r="31">
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4353.006810472298</v>
+        <v>4475.183350899528</v>
       </c>
     </row>
     <row r="32">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>666.7116677363324</v>
+        <v>875.2221880301479</v>
       </c>
     </row>
     <row r="33">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.47246870067185</v>
+        <v>41.29651329378769</v>
       </c>
     </row>
     <row r="34">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.29337673982876</v>
+        <v>66.14501501304365</v>
       </c>
     </row>
     <row r="35">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6733.310948694922</v>
+        <v>6872.568392487256</v>
       </c>
     </row>
     <row r="36">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>440.5037805966199</v>
+        <v>573.2485783867484</v>
       </c>
     </row>
     <row r="37">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>306.2290623025789</v>
+        <v>313.6926751713485</v>
       </c>
     </row>
     <row r="38">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.9165845058161</v>
+        <v>209.483041172018</v>
       </c>
     </row>
     <row r="39">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>276.9202450502161</v>
+        <v>277.8573107869353</v>
       </c>
     </row>
     <row r="40">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5270.288015037889</v>
+        <v>5406.180683529292</v>
       </c>
     </row>
     <row r="41">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4353.006810472298</v>
+        <v>4475.183350899528</v>
       </c>
     </row>
     <row r="42">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>666.7116677363324</v>
+        <v>875.2221880301479</v>
       </c>
     </row>
     <row r="43">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.47246870067185</v>
+        <v>41.29651329378769</v>
       </c>
     </row>
     <row r="44">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.29337673982876</v>
+        <v>66.14501501304365</v>
       </c>
     </row>
     <row r="45">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6733.310948694922</v>
+        <v>6872.568392487256</v>
       </c>
     </row>
     <row r="46">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>440.5037805966199</v>
+        <v>573.2485783867484</v>
       </c>
     </row>
     <row r="47">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>306.2290623025789</v>
+        <v>313.6926751713485</v>
       </c>
     </row>
     <row r="48">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>198.9165845058161</v>
+        <v>209.483041172018</v>
       </c>
     </row>
     <row r="49">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>276.9202450502161</v>
+        <v>277.8573107869353</v>
       </c>
     </row>
     <row r="50">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5270.288015037889</v>
+        <v>5406.180683529292</v>
       </c>
     </row>
     <row r="51">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4353.006810472298</v>
+        <v>4475.183350899528</v>
       </c>
     </row>
     <row r="52">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.4431796304299</v>
+        <v>83.59910785373276</v>
       </c>
     </row>
     <row r="53">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1274.888979051909</v>
+        <v>1866.548901957193</v>
       </c>
     </row>
     <row r="54">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.243322578050429</v>
+        <v>4.071203089161966</v>
       </c>
     </row>
     <row r="55">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>70.62716951272569</v>
+        <v>90.89929128209796</v>
       </c>
     </row>
     <row r="56">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.684658299570434</v>
+        <v>6.537068195570318</v>
       </c>
     </row>
     <row r="57">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>95.69732698118203</v>
+        <v>145.9555942129136</v>
       </c>
     </row>
     <row r="58">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>607.2628117696343</v>
+        <v>926.7281648967021</v>
       </c>
     </row>
     <row r="59">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13114.5421413707</v>
+        <v>14717.79380962021</v>
       </c>
     </row>
     <row r="60">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22.09312712698204</v>
+        <v>58.85371097276661</v>
       </c>
     </row>
     <row r="61">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>836.1685910481496</v>
+        <v>1211.527829512938</v>
       </c>
     </row>
     <row r="62">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>145.6052850312007</v>
+        <v>149.7057141649303</v>
       </c>
     </row>
     <row r="63">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>481.1107164620643</v>
+        <v>531.8162640177517</v>
       </c>
     </row>
     <row r="64">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30.50732890518851</v>
+        <v>36.11057684784406</v>
       </c>
     </row>
     <row r="65">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>359.1905346097922</v>
+        <v>416.1265447951163</v>
       </c>
     </row>
     <row r="66">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>153.4720924858425</v>
+        <v>157.6550981603889</v>
       </c>
     </row>
     <row r="67">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>410.5168249103172</v>
+        <v>436.3970371464731</v>
       </c>
     </row>
     <row r="68">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>183.4852611410891</v>
+        <v>527.3117199541866</v>
       </c>
     </row>
     <row r="69">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10422.9142705817</v>
+        <v>11773.48822420116</v>
       </c>
     </row>
     <row r="70">
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>151.5159940119501</v>
+        <v>436.3428692270699</v>
       </c>
     </row>
     <row r="71">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8606.894125377115</v>
+        <v>9742.392285544855</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.3872718842798</v>
+        <v>759.0489501953125</v>
       </c>
     </row>
     <row r="3">
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.59585122867147</v>
+        <v>33.97824096679688</v>
       </c>
     </row>
     <row r="4">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.04357584070438</v>
+        <v>55.86519622802734</v>
       </c>
     </row>
     <row r="5">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9303.641360991734</v>
+        <v>5681.07958984375</v>
       </c>
     </row>
     <row r="6">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0326101929663</v>
+        <v>490.7583923339844</v>
       </c>
     </row>
     <row r="7">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.3766619009053</v>
+        <v>277.689208984375</v>
       </c>
     </row>
     <row r="8">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261.5087990887363</v>
+        <v>182.9974212646484</v>
       </c>
     </row>
     <row r="9">
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334.7668489729705</v>
+        <v>252.3761291503906</v>
       </c>
     </row>
     <row r="10">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7522.960622008025</v>
+        <v>4425.83837890625</v>
       </c>
     </row>
     <row r="11">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6078.34171126957</v>
+        <v>3658.36279296875</v>
       </c>
     </row>
     <row r="12">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790.3233946540369</v>
+        <v>761.5907592773438</v>
       </c>
     </row>
     <row r="13">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.6078537756945</v>
+        <v>35.25310516357422</v>
       </c>
     </row>
     <row r="14">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.50337007536328</v>
+        <v>57.82477951049805</v>
       </c>
     </row>
     <row r="15">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10358.68744459488</v>
+        <v>5698.71484375</v>
       </c>
     </row>
     <row r="16">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.9430528175697</v>
+        <v>487.5738220214844</v>
       </c>
     </row>
     <row r="17">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>400.8702639998937</v>
+        <v>279.644775390625</v>
       </c>
     </row>
     <row r="18">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>291.3161090332464</v>
+        <v>174.1059722900391</v>
       </c>
     </row>
     <row r="19">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>357.4832349358489</v>
+        <v>252.8833923339844</v>
       </c>
     </row>
     <row r="20">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8450.06250854793</v>
+        <v>4440.521484375</v>
       </c>
     </row>
     <row r="21">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6795.950224955565</v>
+        <v>3682.50146484375</v>
       </c>
     </row>
     <row r="22">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>583.1161621930662</v>
+        <v>745.3019409179688</v>
       </c>
     </row>
     <row r="23">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.679006470337336</v>
+        <v>35.76483154296875</v>
       </c>
     </row>
     <row r="24">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.935514107203272</v>
+        <v>57.59280776977539</v>
       </c>
     </row>
     <row r="25">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10896.80277894184</v>
+        <v>5674.625</v>
       </c>
     </row>
     <row r="26">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>365.8142470532045</v>
+        <v>476.3450317382812</v>
       </c>
     </row>
     <row r="27">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>429.1680903236884</v>
+        <v>279.9715576171875</v>
       </c>
     </row>
     <row r="28">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>342.5511206428043</v>
+        <v>168.1145629882812</v>
       </c>
     </row>
     <row r="29">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>380.5842787266625</v>
+        <v>252.5364532470703</v>
       </c>
     </row>
     <row r="30">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9020.648874096267</v>
+        <v>4418.93896484375</v>
       </c>
     </row>
     <row r="31">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7137.689706500422</v>
+        <v>3668.66943359375</v>
       </c>
     </row>
     <row r="32">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>453.7696332590488</v>
+        <v>757.4010009765625</v>
       </c>
     </row>
     <row r="33">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.355401693045914</v>
+        <v>34.96774291992188</v>
       </c>
     </row>
     <row r="34">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.126684677001288</v>
+        <v>57.69087219238281</v>
       </c>
     </row>
     <row r="35">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9416.493280348977</v>
+        <v>5630.97509765625</v>
       </c>
     </row>
     <row r="36">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>285.6384736013999</v>
+        <v>484.9595031738281</v>
       </c>
     </row>
     <row r="37">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>440.185240793836</v>
+        <v>278.9966735839844</v>
       </c>
     </row>
     <row r="38">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>393.1152862828538</v>
+        <v>170.5121917724609</v>
       </c>
     </row>
     <row r="39">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>394.6544438075944</v>
+        <v>251.5162811279297</v>
       </c>
     </row>
     <row r="40">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8084.075674726693</v>
+        <v>4386.15625</v>
       </c>
     </row>
     <row r="41">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6091.64390474974</v>
+        <v>3635.61669921875</v>
       </c>
     </row>
     <row r="42">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.3683015169531</v>
+        <v>745.7179565429688</v>
       </c>
     </row>
     <row r="43">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.510897502830659</v>
+        <v>35.2363166809082</v>
       </c>
     </row>
     <row r="44">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.020112840649285</v>
+        <v>57.31451797485352</v>
       </c>
     </row>
     <row r="45">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5829.640393678452</v>
+        <v>5613.46875</v>
       </c>
     </row>
     <row r="46">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.8169340203973</v>
+        <v>476.3907165527344</v>
       </c>
     </row>
     <row r="47">
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>416.3593330252364</v>
+        <v>278.5549621582031</v>
       </c>
     </row>
     <row r="48">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>397.5279021368918</v>
+        <v>167.4187622070312</v>
       </c>
     </row>
     <row r="49">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>394.4266885634851</v>
+        <v>251.2522277832031</v>
       </c>
     </row>
     <row r="50">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5408.447498034035</v>
+        <v>4368.4267578125</v>
       </c>
     </row>
     <row r="51">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3690.410130220323</v>
+        <v>3628.64013671875</v>
       </c>
     </row>
     <row r="52">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>248.6911997456437</v>
+        <v>38.02728652954102</v>
       </c>
     </row>
     <row r="53">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2910.574456574024</v>
+        <v>2021.255493164062</v>
       </c>
     </row>
     <row r="54">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001723506606598312</v>
+        <v>1.932440996170044</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0999386822924043</v>
+        <v>97.34141540527344</v>
       </c>
     </row>
     <row r="56">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0007212227669770304</v>
+        <v>2.997017383575439</v>
       </c>
     </row>
     <row r="57">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.008109014215265269</v>
+        <v>157.5636138916016</v>
       </c>
     </row>
     <row r="58">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1335.801034550841</v>
+        <v>540.2446899414062</v>
       </c>
     </row>
     <row r="59">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17997.84392445257</v>
+        <v>15547.57421875</v>
       </c>
     </row>
     <row r="60">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>169.7289700497302</v>
+        <v>29.77157974243164</v>
       </c>
     </row>
     <row r="61">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1481.408490416041</v>
+        <v>1305.971069335938</v>
       </c>
     </row>
     <row r="62">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>454.107836791723</v>
+        <v>140.4687347412109</v>
       </c>
     </row>
     <row r="63">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>857.9421227844281</v>
+        <v>555.7098388671875</v>
       </c>
     </row>
     <row r="64">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1329.41642225668</v>
+        <v>26.443115234375</v>
       </c>
     </row>
     <row r="65">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>825.4456825878312</v>
+        <v>433.7268371582031</v>
       </c>
     </row>
     <row r="66">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>141.4591130111561</v>
+        <v>149.2235412597656</v>
       </c>
     </row>
     <row r="67">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2225.894040645836</v>
+        <v>451.7076721191406</v>
       </c>
     </row>
     <row r="68">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2133.000149214482</v>
+        <v>238.6117553710938</v>
       </c>
     </row>
     <row r="69">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>20516.80700831395</v>
+        <v>12389.9697265625</v>
       </c>
     </row>
     <row r="70">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1131.683519592309</v>
+        <v>180.5525817871094</v>
       </c>
     </row>
     <row r="71">
@@ -5557,738 +5557,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12088.0471854107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Predicted Value (mg/L)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>X_H_A1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>760.0974731445312</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>X_PAO_A1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>43.59261703491211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>X_AUT_A1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>57.85834503173828</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>COD_A1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7666.21435546875</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BOD_A1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>501.8543395996094</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TN_A1</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>325.8084716796875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TKN_A1</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>218.3721771240234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TP_A1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>292.788330078125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TSS_A1</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6014.009765625</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>VSS_A1</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4958.72802734375</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>X_H_A2</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>730.4834594726562</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>X_PAO_A2</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>42.8631591796875</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>X_AUT_A2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>58.09233093261719</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>COD_A2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7605.322265625</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BOD_A2</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>484.400390625</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TN_A2</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>323.3715515136719</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TKN_A2</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>210.5787658691406</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TP_A2</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>290.2651977539062</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TSS_A2</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5966.98681640625</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>VSS_A2</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4933.953125</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X_H_O1</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>712.583251953125</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>X_PAO_O1</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>41.87214660644531</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>X_AUT_O1</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>56.59713363647461</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>COD_O1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>7496.96533203125</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BOD_O1</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>471.4700927734375</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TN_O1</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>320.5849609375</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TKN_O1</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>207.19287109375</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>TP_O1</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>288.2250671386719</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>TSS_O1</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5881.48388671875</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>VSS_O1</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4862.2978515625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>X_H_O2</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>702.436767578125</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>X_PAO_O2</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>41.02253723144531</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>X_AUT_O2</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>55.54024887084961</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>COD_O2</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>7375.25439453125</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BOD_O2</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>463.8942260742188</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TN_O2</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>317.7993469238281</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>TKN_O2</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>205.4497528076172</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TP_O2</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>286.0846252441406</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>TSS_O2</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>5786.04443359375</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>VSS_O2</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4784.4912109375</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>X_H_O3</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>680.6845092773438</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>X_PAO_O3</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>40.35269165039062</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>X_AUT_O3</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>54.05337905883789</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>COD_O3</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>7285.83447265625</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>BOD_O3</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>450.1187133789062</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TN_O3</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>314.8645324707031</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>TKN_O3</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>201.2467041015625</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>TP_O3</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>284.107177734375</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>TSS_O3</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5708.19580078125</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>VSS_O3</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4719.96484375</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>X_H_Effluent</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>15.87332344055176</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>X_H_Wastage</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1184.028442382812</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>X_PAO_Effluent</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9788489937782288</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>X_PAO_Wastage</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>75.18512725830078</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>X_AUT_Effluent</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1.323666214942932</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>X_AUT_Wastage</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>95.16606903076172</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>COD_Effluent</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>512.84130859375</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>COD_Wastage</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>12656.8798828125</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BOD_Effluent</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>16.00018692016602</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>BOD_Wastage</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>777.1285400390625</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TN_Effluent</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>144.8725433349609</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TN_Wastage</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>455.2154846191406</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>TKN_Effluent</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>27.88955497741699</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>TKN_Wastage</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>336.5619812011719</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>TP_Effluent</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>151.6887359619141</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>TP_Wastage</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>395.8008728027344</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>132.0544738769531</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>10031.3408203125</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>VSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>113.0856094360352</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>8304.314453125</v>
+        <v>10198.9453125</v>
       </c>
     </row>
   </sheetData>

--- a/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
+++ b/data/surrogate_predictions/aao/surrogate_model_predictions.xlsx
@@ -13,6 +13,7 @@
     <sheet name="knn" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="gam" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="clefo" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="svr" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -481,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>708.6016235351562</v>
+        <v>909.430419921875</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +492,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.98181915283203</v>
+        <v>52.49836730957031</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +502,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.12690734863281</v>
+        <v>66.71513366699219</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +512,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5718.66796875</v>
+        <v>7597.55078125</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +522,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.3745422363281</v>
+        <v>600.395263671875</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>277.2232360839844</v>
+        <v>340.8749694824219</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +542,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.1058807373047</v>
+        <v>230.2526092529297</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +552,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>251.9397735595703</v>
+        <v>291.252197265625</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4474.90966796875</v>
+        <v>5989.6552734375</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +572,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3672.422119140625</v>
+        <v>4954.7568359375</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +582,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>711.1922607421875</v>
+        <v>895.9588012695312</v>
       </c>
     </row>
     <row r="13">
@@ -591,7 +592,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.37942123413086</v>
+        <v>52.85000991821289</v>
       </c>
     </row>
     <row r="14">
@@ -601,7 +602,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.33779907226562</v>
+        <v>67.18784332275391</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +612,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5703.91796875</v>
+        <v>7599.9345703125</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +622,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>462.7690124511719</v>
+        <v>585.2576293945312</v>
       </c>
     </row>
     <row r="17">
@@ -631,7 +632,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.7215270996094</v>
+        <v>340.8130798339844</v>
       </c>
     </row>
     <row r="18">
@@ -641,7 +642,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>172.2869415283203</v>
+        <v>221.08447265625</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.0970764160156</v>
+        <v>292.3599243164062</v>
       </c>
     </row>
     <row r="20">
@@ -661,7 +662,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4449.41943359375</v>
+        <v>6003.16259765625</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +672,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3665.39599609375</v>
+        <v>4951.04931640625</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +682,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>694.8718872070312</v>
+        <v>875.8171997070312</v>
       </c>
     </row>
     <row r="23">
@@ -691,7 +692,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.36643218994141</v>
+        <v>52.65497970581055</v>
       </c>
     </row>
     <row r="24">
@@ -701,7 +702,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.63169479370117</v>
+        <v>66.21874237060547</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +712,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5714.41015625</v>
+        <v>7594.8486328125</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +722,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>449.3850402832031</v>
+        <v>572.730712890625</v>
       </c>
     </row>
     <row r="27">
@@ -731,7 +732,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>275.4604187011719</v>
+        <v>340.5232849121094</v>
       </c>
     </row>
     <row r="28">
@@ -741,7 +742,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.8136138916016</v>
+        <v>218.0231170654297</v>
       </c>
     </row>
     <row r="29">
@@ -751,7 +752,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>252.6990814208984</v>
+        <v>292.4561462402344</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +762,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4449.0673828125</v>
+        <v>5996.37646484375</v>
       </c>
     </row>
     <row r="31">
@@ -771,7 +772,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3655.52392578125</v>
+        <v>4947.083984375</v>
       </c>
     </row>
     <row r="32">
@@ -781,7 +782,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>705.9689331054688</v>
+        <v>852.1358032226562</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +792,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.67137145996094</v>
+        <v>52.41481018066406</v>
       </c>
     </row>
     <row r="34">
@@ -801,7 +802,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.31547164916992</v>
+        <v>64.92805480957031</v>
       </c>
     </row>
     <row r="35">
@@ -811,7 +812,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5614.6943359375</v>
+        <v>7595.27587890625</v>
       </c>
     </row>
     <row r="36">
@@ -821,7 +822,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>459.4944763183594</v>
+        <v>558.0930786132812</v>
       </c>
     </row>
     <row r="37">
@@ -831,7 +832,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>275.8793640136719</v>
+        <v>339.5178833007812</v>
       </c>
     </row>
     <row r="38">
@@ -841,7 +842,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.9279632568359</v>
+        <v>216.2836456298828</v>
       </c>
     </row>
     <row r="39">
@@ -851,7 +852,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>252.0252075195312</v>
+        <v>292.4490051269531</v>
       </c>
     </row>
     <row r="40">
@@ -861,7 +862,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4407.94873046875</v>
+        <v>5989.529296875</v>
       </c>
     </row>
     <row r="41">
@@ -871,7 +872,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3631.95703125</v>
+        <v>4946.947265625</v>
       </c>
     </row>
     <row r="42">
@@ -881,7 +882,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>695.8314208984375</v>
+        <v>832.8356323242188</v>
       </c>
     </row>
     <row r="43">
@@ -891,7 +892,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.66787719726562</v>
+        <v>52.32784271240234</v>
       </c>
     </row>
     <row r="44">
@@ -901,7 +902,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.22970962524414</v>
+        <v>63.61775588989258</v>
       </c>
     </row>
     <row r="45">
@@ -911,7 +912,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5659.89208984375</v>
+        <v>7590.5625</v>
       </c>
     </row>
     <row r="46">
@@ -921,7 +922,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>449.7799377441406</v>
+        <v>546.234375</v>
       </c>
     </row>
     <row r="47">
@@ -931,7 +932,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>276.4302978515625</v>
+        <v>338.3822937011719</v>
       </c>
     </row>
     <row r="48">
@@ -941,7 +942,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>165.6121673583984</v>
+        <v>215.0507202148438</v>
       </c>
     </row>
     <row r="49">
@@ -951,7 +952,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>251.9374847412109</v>
+        <v>292.2630310058594</v>
       </c>
     </row>
     <row r="50">
@@ -961,7 +962,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4410.3203125</v>
+        <v>5982.9873046875</v>
       </c>
     </row>
     <row r="51">
@@ -971,7 +972,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3628.138427734375</v>
+        <v>4941.91650390625</v>
       </c>
     </row>
     <row r="52">
@@ -981,7 +982,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26.18135643005371</v>
+        <v>60.98565292358398</v>
       </c>
     </row>
     <row r="53">
@@ -991,7 +992,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1930.016235351562</v>
+        <v>1655.784545898438</v>
       </c>
     </row>
     <row r="54">
@@ -1001,7 +1002,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.328572392463684</v>
+        <v>3.790185689926147</v>
       </c>
     </row>
     <row r="55">
@@ -1011,7 +1012,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.43114471435547</v>
+        <v>102.8054809570312</v>
       </c>
     </row>
     <row r="56">
@@ -1021,7 +1022,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.161287784576416</v>
+        <v>4.705764770507812</v>
       </c>
     </row>
     <row r="57">
@@ -1031,7 +1032,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>152.33935546875</v>
+        <v>127.9562606811523</v>
       </c>
     </row>
     <row r="58">
@@ -1041,7 +1042,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>457.154296875</v>
+        <v>750.9971313476562</v>
       </c>
     </row>
     <row r="59">
@@ -1051,7 +1052,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15353.0517578125</v>
+        <v>15016.26171875</v>
       </c>
     </row>
     <row r="60">
@@ -1061,7 +1062,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18.61477661132812</v>
+        <v>40.76729202270508</v>
       </c>
     </row>
     <row r="61">
@@ -1071,7 +1072,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1228.146240234375</v>
+        <v>1079.685424804688</v>
       </c>
     </row>
     <row r="62">
@@ -1081,7 +1082,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>135.5176544189453</v>
+        <v>156.1277313232422</v>
       </c>
     </row>
     <row r="63">
@@ -1091,7 +1092,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>541.8059692382812</v>
+        <v>532.3838500976562</v>
       </c>
     </row>
     <row r="64">
@@ -1101,7 +1102,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>22.28443145751953</v>
+        <v>35.10038375854492</v>
       </c>
     </row>
     <row r="65">
@@ -1111,7 +1112,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>425.2686157226562</v>
+        <v>410.7925109863281</v>
       </c>
     </row>
     <row r="66">
@@ -1121,7 +1122,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>147.23974609375</v>
+        <v>153.4752349853516</v>
       </c>
     </row>
     <row r="67">
@@ -1131,7 +1132,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>452.4682006835938</v>
+        <v>443.5487060546875</v>
       </c>
     </row>
     <row r="68">
@@ -1141,7 +1142,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>173.4080963134766</v>
+        <v>442.4971008300781</v>
       </c>
     </row>
     <row r="69">
@@ -1151,7 +1152,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12265.2578125</v>
+        <v>11978.25390625</v>
       </c>
     </row>
     <row r="70">
@@ -1161,7 +1162,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>144.0300903320312</v>
+        <v>364.76953125</v>
       </c>
     </row>
     <row r="71">
@@ -1171,7 +1172,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10120.05859375</v>
+        <v>9885.9296875</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1213,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675.5663558306217</v>
+        <v>930.2182300043946</v>
       </c>
     </row>
     <row r="3">
@@ -1222,7 +1223,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.39422696878079</v>
+        <v>47.42748883957964</v>
       </c>
     </row>
     <row r="4">
@@ -1232,7 +1233,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.92237916667253</v>
+        <v>66.38454843634473</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1243,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6187.891264306865</v>
+        <v>7487.103106238449</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1253,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484.0232810053719</v>
+        <v>638.6640149534389</v>
       </c>
     </row>
     <row r="7">
@@ -1262,7 +1263,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.5319760485817</v>
+        <v>333.4597328797516</v>
       </c>
     </row>
     <row r="8">
@@ -1272,7 +1273,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.2691060807945</v>
+        <v>229.6107960765893</v>
       </c>
     </row>
     <row r="9">
@@ -1282,7 +1283,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>263.2071106118091</v>
+        <v>299.0381382558932</v>
       </c>
     </row>
     <row r="10">
@@ -1292,7 +1293,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4819.341284812192</v>
+        <v>5897.788479588396</v>
       </c>
     </row>
     <row r="11">
@@ -1302,7 +1303,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3993.233481741532</v>
+        <v>4915.724804188207</v>
       </c>
     </row>
     <row r="12">
@@ -1312,7 +1313,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>695.7368686665045</v>
+        <v>940.3980456506397</v>
       </c>
     </row>
     <row r="13">
@@ -1322,7 +1323,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.69502979068449</v>
+        <v>47.74309034689414</v>
       </c>
     </row>
     <row r="14">
@@ -1332,7 +1333,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.9177833371456</v>
+        <v>69.03379010487042</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1343,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6266.379789971902</v>
+        <v>7534.106552279562</v>
       </c>
     </row>
     <row r="16">
@@ -1352,7 +1353,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.6341233798599</v>
+        <v>618.8831196733398</v>
       </c>
     </row>
     <row r="17">
@@ -1362,7 +1363,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>287.7585392468046</v>
+        <v>333.86437464688</v>
       </c>
     </row>
     <row r="18">
@@ -1372,7 +1373,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.859485810292</v>
+        <v>222.2287497421705</v>
       </c>
     </row>
     <row r="19">
@@ -1382,7 +1383,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.1836579485135</v>
+        <v>298.0752514551399</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1393,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4885.980609237401</v>
+        <v>5938.694149607438</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1403,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4058.469677963251</v>
+        <v>4926.31126417095</v>
       </c>
     </row>
     <row r="22">
@@ -1412,7 +1413,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.3369869364179</v>
+        <v>930.484933852227</v>
       </c>
     </row>
     <row r="23">
@@ -1422,7 +1423,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.2049909980377</v>
+        <v>47.69964055598876</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1433,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.37208033544519</v>
+        <v>70.3921440274725</v>
       </c>
     </row>
     <row r="25">
@@ -1442,7 +1443,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6264.377431088565</v>
+        <v>7530.488442409499</v>
       </c>
     </row>
     <row r="26">
@@ -1452,7 +1453,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>458.5850007226089</v>
+        <v>607.8480808324085</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1463,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>290.1954553025475</v>
+        <v>333.9006637099776</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1473,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.6624344775295</v>
+        <v>218.5694469104122</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1483,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.4604759583111</v>
+        <v>297.8998322259997</v>
       </c>
     </row>
     <row r="30">
@@ -1492,7 +1493,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4896.57956590409</v>
+        <v>5940.580086763538</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1503,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4054.165590087413</v>
+        <v>4922.7013922835</v>
       </c>
     </row>
     <row r="32">
@@ -1512,7 +1513,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>703.9353270588784</v>
+        <v>921.3057892353524</v>
       </c>
     </row>
     <row r="33">
@@ -1522,7 +1523,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.78796242169479</v>
+        <v>47.56329346239465</v>
       </c>
     </row>
     <row r="34">
@@ -1532,7 +1533,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.99094627578738</v>
+        <v>69.9136296430792</v>
       </c>
     </row>
     <row r="35">
@@ -1542,7 +1543,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6254.091948926573</v>
+        <v>7530.58801180831</v>
       </c>
     </row>
     <row r="36">
@@ -1552,7 +1553,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.8625307101012</v>
+        <v>599.4708726058794</v>
       </c>
     </row>
     <row r="37">
@@ -1562,7 +1563,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>292.0307017827353</v>
+        <v>333.8808234281775</v>
       </c>
     </row>
     <row r="38">
@@ -1572,7 +1573,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.0026699834533</v>
+        <v>216.9440951142408</v>
       </c>
     </row>
     <row r="39">
@@ -1582,7 +1583,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>264.5134731369752</v>
+        <v>297.3620154206798</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1593,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4904.616744703711</v>
+        <v>5940.455325952011</v>
       </c>
     </row>
     <row r="41">
@@ -1602,7 +1603,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4064.315591651889</v>
+        <v>4923.159226768399</v>
       </c>
     </row>
     <row r="42">
@@ -1612,7 +1613,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>697.5384151726159</v>
+        <v>906.2170310250689</v>
       </c>
     </row>
     <row r="43">
@@ -1622,7 +1623,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.93030523763822</v>
+        <v>47.58254815057801</v>
       </c>
     </row>
     <row r="44">
@@ -1632,7 +1633,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.52565577612459</v>
+        <v>69.81620752027878</v>
       </c>
     </row>
     <row r="45">
@@ -1642,7 +1643,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6261.632183868207</v>
+        <v>7530.488442409499</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1653,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>461.9850641607088</v>
+        <v>591.1573172849368</v>
       </c>
     </row>
     <row r="47">
@@ -1662,7 +1663,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>291.092089295802</v>
+        <v>333.7934395946954</v>
       </c>
     </row>
     <row r="48">
@@ -1672,7 +1673,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>174.1488304510271</v>
+        <v>216.4773517100544</v>
       </c>
     </row>
     <row r="49">
@@ -1682,7 +1683,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>264.5701910331797</v>
+        <v>297.1532090158696</v>
       </c>
     </row>
     <row r="50">
@@ -1692,7 +1693,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4881.932473217413</v>
+        <v>5939.597594456135</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1703,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4058.882986668717</v>
+        <v>4922.699615660446</v>
       </c>
     </row>
     <row r="52">
@@ -1712,7 +1713,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>27.81327939995498</v>
+        <v>75.16205275918007</v>
       </c>
     </row>
     <row r="53">
@@ -1722,7 +1723,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1947.809736062749</v>
+        <v>1779.149183443375</v>
       </c>
     </row>
     <row r="54">
@@ -1732,7 +1733,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.35911397442416</v>
+        <v>3.882370079709455</v>
       </c>
     </row>
     <row r="55">
@@ -1742,7 +1743,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.1018714348573</v>
+        <v>93.22158966115552</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1753,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.502398318573967</v>
+        <v>6.05764099685472</v>
       </c>
     </row>
     <row r="57">
@@ -1762,7 +1763,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>150.2828936464304</v>
+        <v>140.3805779434528</v>
       </c>
     </row>
     <row r="58">
@@ -1772,7 +1773,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>464.567453093686</v>
+        <v>799.4773399184666</v>
       </c>
     </row>
     <row r="59">
@@ -1782,7 +1783,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16626.51007058938</v>
+        <v>14785.0874454467</v>
       </c>
     </row>
     <row r="60">
@@ -1792,7 +1793,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>19.23341030530757</v>
+        <v>50.90361668897527</v>
       </c>
     </row>
     <row r="61">
@@ -1802,7 +1803,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1255.37356864821</v>
+        <v>1154.263647039887</v>
       </c>
     </row>
     <row r="62">
@@ -1812,7 +1813,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>142.785254540465</v>
+        <v>153.9609658691439</v>
       </c>
     </row>
     <row r="63">
@@ -1822,7 +1823,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>571.8399090479501</v>
+        <v>521.586989059495</v>
       </c>
     </row>
     <row r="64">
@@ -1832,7 +1833,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24.74817001719975</v>
+        <v>33.91545897891733</v>
       </c>
     </row>
     <row r="65">
@@ -1842,7 +1843,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>455.149366288411</v>
+        <v>413.3069317854428</v>
       </c>
     </row>
     <row r="66">
@@ -1852,7 +1853,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>147.9392324874287</v>
+        <v>153.4808134066019</v>
       </c>
     </row>
     <row r="67">
@@ -1862,7 +1863,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>474.615590281712</v>
+        <v>437.3031775556078</v>
       </c>
     </row>
     <row r="68">
@@ -1872,7 +1873,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>206.8419022488675</v>
+        <v>485.3028109385497</v>
       </c>
     </row>
     <row r="69">
@@ -1882,7 +1883,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>13337.41397363826</v>
+        <v>11838.59649927467</v>
       </c>
     </row>
     <row r="70">
@@ -1892,7 +1893,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>174.5414946316304</v>
+        <v>405.5079249482739</v>
       </c>
     </row>
     <row r="71">
@@ -1902,7 +1903,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11022.92510334534</v>
+        <v>9793.214406038267</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1944,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>693.936767578125</v>
+        <v>882.9957885742188</v>
       </c>
     </row>
     <row r="3">
@@ -1953,7 +1954,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.59513092041016</v>
+        <v>47.22584533691406</v>
       </c>
     </row>
     <row r="4">
@@ -1963,7 +1964,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.79084014892578</v>
+        <v>64.04299163818359</v>
       </c>
     </row>
     <row r="5">
@@ -1973,7 +1974,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5607.390625</v>
+        <v>7550.24755859375</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1984,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.2958984375</v>
+        <v>618.808837890625</v>
       </c>
     </row>
     <row r="7">
@@ -1993,7 +1994,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.7445678710938</v>
+        <v>333.3479919433594</v>
       </c>
     </row>
     <row r="8">
@@ -2003,7 +2004,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.8265686035156</v>
+        <v>229.4824829101562</v>
       </c>
     </row>
     <row r="9">
@@ -2013,7 +2014,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250.4725189208984</v>
+        <v>296.9782409667969</v>
       </c>
     </row>
     <row r="10">
@@ -2023,7 +2024,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4357.6376953125</v>
+        <v>5912.84912109375</v>
       </c>
     </row>
     <row r="11">
@@ -2033,7 +2034,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3639.3388671875</v>
+        <v>4881.51953125</v>
       </c>
     </row>
     <row r="12">
@@ -2043,7 +2044,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>714.88525390625</v>
+        <v>889.1932983398438</v>
       </c>
     </row>
     <row r="13">
@@ -2053,7 +2054,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.0926628112793</v>
+        <v>47.58243560791016</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2064,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.69204330444336</v>
+        <v>68.13538360595703</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2074,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5599.25146484375</v>
+        <v>7575.0869140625</v>
       </c>
     </row>
     <row r="16">
@@ -2083,7 +2084,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>456.5913696289062</v>
+        <v>594.7735595703125</v>
       </c>
     </row>
     <row r="17">
@@ -2093,7 +2094,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.9298706054688</v>
+        <v>332.6266479492188</v>
       </c>
     </row>
     <row r="18">
@@ -2103,7 +2104,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>171.7573852539062</v>
+        <v>220.4756317138672</v>
       </c>
     </row>
     <row r="19">
@@ -2113,7 +2114,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>248.7786254882812</v>
+        <v>294.1791381835938</v>
       </c>
     </row>
     <row r="20">
@@ -2123,7 +2124,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4332.794921875</v>
+        <v>5964.1875</v>
       </c>
     </row>
     <row r="21">
@@ -2133,7 +2134,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3593.041015625</v>
+        <v>4908.49658203125</v>
       </c>
     </row>
     <row r="22">
@@ -2143,7 +2144,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.64599609375</v>
+        <v>881.1779174804688</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2154,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.12996292114258</v>
+        <v>47.64975738525391</v>
       </c>
     </row>
     <row r="24">
@@ -2163,7 +2164,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.95027923583984</v>
+        <v>68.69390106201172</v>
       </c>
     </row>
     <row r="25">
@@ -2173,7 +2174,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5513.810546875</v>
+        <v>7591.025390625</v>
       </c>
     </row>
     <row r="26">
@@ -2183,7 +2184,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>449.7790832519531</v>
+        <v>581.108642578125</v>
       </c>
     </row>
     <row r="27">
@@ -2193,7 +2194,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>274.1940002441406</v>
+        <v>332.8117980957031</v>
       </c>
     </row>
     <row r="28">
@@ -2203,7 +2204,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.1861572265625</v>
+        <v>216.0353393554688</v>
       </c>
     </row>
     <row r="29">
@@ -2213,7 +2214,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.2121124267578</v>
+        <v>291.5832214355469</v>
       </c>
     </row>
     <row r="30">
@@ -2223,7 +2224,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4386.7333984375</v>
+        <v>5961.73095703125</v>
       </c>
     </row>
     <row r="31">
@@ -2233,7 +2234,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3630.302001953125</v>
+        <v>4910.626953125</v>
       </c>
     </row>
     <row r="32">
@@ -2243,7 +2244,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>713.6771850585938</v>
+        <v>870.97119140625</v>
       </c>
     </row>
     <row r="33">
@@ -2253,7 +2254,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.93519973754883</v>
+        <v>47.57370758056641</v>
       </c>
     </row>
     <row r="34">
@@ -2263,7 +2264,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.44686126708984</v>
+        <v>69.3157958984375</v>
       </c>
     </row>
     <row r="35">
@@ -2273,7 +2274,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5625.90771484375</v>
+        <v>7624.69775390625</v>
       </c>
     </row>
     <row r="36">
@@ -2283,7 +2284,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>463.091064453125</v>
+        <v>570.725341796875</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2294,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>276.7723083496094</v>
+        <v>332.8086242675781</v>
       </c>
     </row>
     <row r="38">
@@ -2303,7 +2304,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>173.8489685058594</v>
+        <v>214.9013671875</v>
       </c>
     </row>
     <row r="39">
@@ -2313,7 +2314,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>249.9393463134766</v>
+        <v>290.2762756347656</v>
       </c>
     </row>
     <row r="40">
@@ -2323,7 +2324,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4396.80224609375</v>
+        <v>5959.8896484375</v>
       </c>
     </row>
     <row r="41">
@@ -2333,7 +2334,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3639.783203125</v>
+        <v>4910.68359375</v>
       </c>
     </row>
     <row r="42">
@@ -2343,7 +2344,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>701.703369140625</v>
+        <v>852.77490234375</v>
       </c>
     </row>
     <row r="43">
@@ -2353,7 +2354,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.60113525390625</v>
+        <v>47.55301666259766</v>
       </c>
     </row>
     <row r="44">
@@ -2363,7 +2364,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.92708969116211</v>
+        <v>67.29477691650391</v>
       </c>
     </row>
     <row r="45">
@@ -2373,7 +2374,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5593.466796875</v>
+        <v>7639.22509765625</v>
       </c>
     </row>
     <row r="46">
@@ -2383,7 +2384,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>457.8500366210938</v>
+        <v>557.4734497070312</v>
       </c>
     </row>
     <row r="47">
@@ -2393,7 +2394,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>274.0478210449219</v>
+        <v>332.8009948730469</v>
       </c>
     </row>
     <row r="48">
@@ -2403,7 +2404,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>168.7397155761719</v>
+        <v>213.6356811523438</v>
       </c>
     </row>
     <row r="49">
@@ -2413,7 +2414,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>248.7906951904297</v>
+        <v>290.2762756347656</v>
       </c>
     </row>
     <row r="50">
@@ -2423,7 +2424,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4385.9638671875</v>
+        <v>5959.8896484375</v>
       </c>
     </row>
     <row r="51">
@@ -2433,7 +2434,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3633.852294921875</v>
+        <v>4915.46240234375</v>
       </c>
     </row>
     <row r="52">
@@ -2443,7 +2444,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>58.1837043762207</v>
+        <v>71.67410278320312</v>
       </c>
     </row>
     <row r="53">
@@ -2453,7 +2454,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2248.9619140625</v>
+        <v>1711.438232421875</v>
       </c>
     </row>
     <row r="54">
@@ -2463,7 +2464,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.820216655731201</v>
+        <v>3.717278480529785</v>
       </c>
     </row>
     <row r="55">
@@ -2473,7 +2474,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>108.3819274902344</v>
+        <v>93.99126434326172</v>
       </c>
     </row>
     <row r="56">
@@ -2483,7 +2484,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.536571979522705</v>
+        <v>5.905333995819092</v>
       </c>
     </row>
     <row r="57">
@@ -2493,7 +2494,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>175.7614288330078</v>
+        <v>134.1900634765625</v>
       </c>
     </row>
     <row r="58">
@@ -2503,7 +2504,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>667.8003540039062</v>
+        <v>790.8486938476562</v>
       </c>
     </row>
     <row r="59">
@@ -2513,7 +2514,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17046.578125</v>
+        <v>14750.9375</v>
       </c>
     </row>
     <row r="60">
@@ -2523,7 +2524,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>38.35880661010742</v>
+        <v>44.98889923095703</v>
       </c>
     </row>
     <row r="61">
@@ -2533,7 +2534,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1483.494750976562</v>
+        <v>1093.086669921875</v>
       </c>
     </row>
     <row r="62">
@@ -2543,7 +2544,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>145.1612548828125</v>
+        <v>150.2871704101562</v>
       </c>
     </row>
     <row r="63">
@@ -2553,7 +2554,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>592.8958740234375</v>
+        <v>526.2521362304688</v>
       </c>
     </row>
     <row r="64">
@@ -2563,7 +2564,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.28183174133301</v>
+        <v>33.40478134155273</v>
       </c>
     </row>
     <row r="65">
@@ -2573,7 +2574,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>476.700439453125</v>
+        <v>403.6061706542969</v>
       </c>
     </row>
     <row r="66">
@@ -2583,7 +2584,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>151.3182678222656</v>
+        <v>154.1982269287109</v>
       </c>
     </row>
     <row r="67">
@@ -2593,7 +2594,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>480.9235534667969</v>
+        <v>438.7733154296875</v>
       </c>
     </row>
     <row r="68">
@@ -2603,7 +2604,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>329.7392578125</v>
+        <v>482.3587341308594</v>
       </c>
     </row>
     <row r="69">
@@ -2613,7 +2614,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>13562.4794921875</v>
+        <v>11857.75390625</v>
       </c>
     </row>
     <row r="70">
@@ -2623,7 +2624,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>274.9504699707031</v>
+        <v>418.0942993164062</v>
       </c>
     </row>
     <row r="71">
@@ -2633,7 +2634,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11221.67578125</v>
+        <v>9711.4033203125</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2675,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>702.7679577098043</v>
+        <v>792.2598267721072</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2685,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.23299831411786</v>
+        <v>48.3081705966103</v>
       </c>
     </row>
     <row r="4">
@@ -2694,7 +2695,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.6809709039385</v>
+        <v>62.71087972657339</v>
       </c>
     </row>
     <row r="5">
@@ -2704,7 +2705,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5807.467262212046</v>
+        <v>8068.615100782698</v>
       </c>
     </row>
     <row r="6">
@@ -2714,7 +2715,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.4449394234487</v>
+        <v>522.0667815677497</v>
       </c>
     </row>
     <row r="7">
@@ -2724,7 +2725,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4801012517821</v>
+        <v>336.7583656229116</v>
       </c>
     </row>
     <row r="8">
@@ -2734,7 +2735,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.7543976505187</v>
+        <v>222.8635584466444</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2745,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.3925514223687</v>
+        <v>299.493224426096</v>
       </c>
     </row>
     <row r="10">
@@ -2754,7 +2755,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4542.09595362724</v>
+        <v>6347.602389544746</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +2765,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3757.807855368438</v>
+        <v>5244.719194351196</v>
       </c>
     </row>
     <row r="12">
@@ -2774,7 +2775,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>702.9565592658872</v>
+        <v>778.6636268594584</v>
       </c>
     </row>
     <row r="13">
@@ -2784,7 +2785,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.39852294282812</v>
+        <v>49.57855485459355</v>
       </c>
     </row>
     <row r="14">
@@ -2794,7 +2795,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.56666261449352</v>
+        <v>61.531547245753</v>
       </c>
     </row>
     <row r="15">
@@ -2804,7 +2805,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5822.756819902848</v>
+        <v>8006.271841919521</v>
       </c>
     </row>
     <row r="16">
@@ -2814,7 +2815,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.055488285288</v>
+        <v>512.9473784885705</v>
       </c>
     </row>
     <row r="17">
@@ -2824,7 +2825,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>280.3044710663864</v>
+        <v>336.9153729960781</v>
       </c>
     </row>
     <row r="18">
@@ -2834,7 +2835,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>169.4271882048589</v>
+        <v>219.8646868371307</v>
       </c>
     </row>
     <row r="19">
@@ -2844,7 +2845,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>255.0132419405337</v>
+        <v>298.7608766141162</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2855,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4555.187293235302</v>
+        <v>6297.327326042348</v>
       </c>
     </row>
     <row r="21">
@@ -2864,7 +2865,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3766.974073228401</v>
+        <v>5200.868311048713</v>
       </c>
     </row>
     <row r="22">
@@ -2874,7 +2875,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.8499636740261</v>
+        <v>762.6444108946821</v>
       </c>
     </row>
     <row r="23">
@@ -2884,7 +2885,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.93234021014582</v>
+        <v>49.48088083726712</v>
       </c>
     </row>
     <row r="24">
@@ -2894,7 +2895,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.03455213571811</v>
+        <v>60.24436777587696</v>
       </c>
     </row>
     <row r="25">
@@ -2904,7 +2905,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5844.659889406123</v>
+        <v>7983.021481626027</v>
       </c>
     </row>
     <row r="26">
@@ -2914,7 +2915,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>457.6326189325177</v>
+        <v>502.9400902420527</v>
       </c>
     </row>
     <row r="27">
@@ -2924,7 +2925,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>282.9091491239722</v>
+        <v>336.2410911706502</v>
       </c>
     </row>
     <row r="28">
@@ -2934,7 +2935,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.2920252938492</v>
+        <v>218.8524700333074</v>
       </c>
     </row>
     <row r="29">
@@ -2944,7 +2945,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.5757863950767</v>
+        <v>298.3135180285001</v>
       </c>
     </row>
     <row r="30">
@@ -2954,7 +2955,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4572.831913107587</v>
+        <v>6276.826731251177</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2965,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3780.949404248792</v>
+        <v>5183.454677203275</v>
       </c>
     </row>
     <row r="32">
@@ -2974,7 +2975,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>696.9428568324098</v>
+        <v>744.4150103496413</v>
       </c>
     </row>
     <row r="33">
@@ -2984,7 +2985,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.18391387813782</v>
+        <v>49.44513928818704</v>
       </c>
     </row>
     <row r="34">
@@ -2994,7 +2995,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.56474486620658</v>
+        <v>58.92113182590933</v>
       </c>
     </row>
     <row r="35">
@@ -3004,7 +3005,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5862.691423245189</v>
+        <v>7989.520666940555</v>
       </c>
     </row>
     <row r="36">
@@ -3014,7 +3015,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>455.4598031502235</v>
+        <v>491.7980428810022</v>
       </c>
     </row>
     <row r="37">
@@ -3024,7 +3025,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.1836185578</v>
+        <v>335.7851035007216</v>
       </c>
     </row>
     <row r="38">
@@ -3034,7 +3035,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.8757769555207</v>
+        <v>218.2484160177096</v>
       </c>
     </row>
     <row r="39">
@@ -3044,7 +3045,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>255.9756778649831</v>
+        <v>298.4242473350586</v>
       </c>
     </row>
     <row r="40">
@@ -3054,7 +3055,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4586.562513742404</v>
+        <v>6279.433022721746</v>
       </c>
     </row>
     <row r="41">
@@ -3064,7 +3065,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3791.921494184312</v>
+        <v>5185.096182009</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3075,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>692.9026647798272</v>
+        <v>725.2063698990894</v>
       </c>
     </row>
     <row r="43">
@@ -3084,7 +3085,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.37199421266499</v>
+        <v>49.36882303448867</v>
       </c>
     </row>
     <row r="44">
@@ -3094,7 +3095,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.17838068869982</v>
+        <v>57.65542456378225</v>
       </c>
     </row>
     <row r="45">
@@ -3104,7 +3105,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5864.43023691909</v>
+        <v>8027.351909036141</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3115,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.7970995922919</v>
+        <v>480.0225697365441</v>
       </c>
     </row>
     <row r="47">
@@ -3124,7 +3125,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>284.822464084028</v>
+        <v>334.9746997082668</v>
       </c>
     </row>
     <row r="48">
@@ -3134,7 +3135,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>170.8099234924582</v>
+        <v>217.8449737412924</v>
       </c>
     </row>
     <row r="49">
@@ -3144,7 +3145,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>256.0758116298654</v>
+        <v>298.9731797427907</v>
       </c>
     </row>
     <row r="50">
@@ -3154,7 +3155,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4587.725511238631</v>
+        <v>6306.549361153652</v>
       </c>
     </row>
     <row r="51">
@@ -3164,7 +3165,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3792.534393063269</v>
+        <v>5207.125406031218</v>
       </c>
     </row>
     <row r="52">
@@ -3174,7 +3175,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>47.71570558906889</v>
+        <v>63.52479795209347</v>
       </c>
     </row>
     <row r="53">
@@ -3184,7 +3185,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2222.049072633112</v>
+        <v>1390.899032598881</v>
       </c>
     </row>
     <row r="54">
@@ -3194,7 +3195,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.25343292699545</v>
+        <v>4.102780228319729</v>
       </c>
     </row>
     <row r="55">
@@ -3204,7 +3205,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.9390024490857</v>
+        <v>89.83189611778481</v>
       </c>
     </row>
     <row r="56">
@@ -3214,7 +3215,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.739342068602475</v>
+        <v>5.070732038717367</v>
       </c>
     </row>
     <row r="57">
@@ -3224,7 +3225,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>174.135569687553</v>
+        <v>111.0255603258903</v>
       </c>
     </row>
     <row r="58">
@@ -3234,7 +3235,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>555.2919676756181</v>
+        <v>890.8781023788723</v>
       </c>
     </row>
     <row r="59">
@@ -3244,7 +3245,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16241.44972315394</v>
+        <v>14883.67839536765</v>
       </c>
     </row>
     <row r="60">
@@ -3254,7 +3255,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>32.27629487093014</v>
+        <v>44.39518563304471</v>
       </c>
     </row>
     <row r="61">
@@ -3264,7 +3265,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1438.043629422264</v>
+        <v>916.3279659374789</v>
       </c>
     </row>
     <row r="62">
@@ -3274,7 +3275,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>138.5462715462847</v>
+        <v>154.8376959821787</v>
       </c>
     </row>
     <row r="63">
@@ -3284,7 +3285,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>575.8280370194926</v>
+        <v>511.9330407742599</v>
       </c>
     </row>
     <row r="64">
@@ -3294,7 +3295,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24.50856930382382</v>
+        <v>36.60738449854304</v>
       </c>
     </row>
     <row r="65">
@@ -3304,7 +3305,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>461.9117280999615</v>
+        <v>393.5764517050566</v>
       </c>
     </row>
     <row r="66">
@@ -3314,7 +3315,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>149.1021628896875</v>
+        <v>157.0220078331187</v>
       </c>
     </row>
     <row r="67">
@@ -3324,7 +3325,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>466.7047320120836</v>
+        <v>436.0199643538696</v>
       </c>
     </row>
     <row r="68">
@@ -3334,7 +3335,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>279.7554333209354</v>
+        <v>540.4872179820537</v>
       </c>
     </row>
     <row r="69">
@@ -3344,7 +3345,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>13027.7922855922</v>
+        <v>11834.1682753597</v>
       </c>
     </row>
     <row r="70">
@@ -3354,7 +3355,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>231.4758985864158</v>
+        <v>446.4177369954228</v>
       </c>
     </row>
     <row r="71">
@@ -3364,7 +3365,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10779.48653259972</v>
+        <v>9774.482069036691</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3406,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>776.3465328125071</v>
+        <v>890.9270923131305</v>
       </c>
     </row>
     <row r="3">
@@ -3415,7 +3416,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.88877235865604</v>
+        <v>47.22248682037964</v>
       </c>
     </row>
     <row r="4">
@@ -3425,7 +3426,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.82650429402173</v>
+        <v>68.56340617865193</v>
       </c>
     </row>
     <row r="5">
@@ -3435,7 +3436,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5300.437815697343</v>
+        <v>7646.366902893894</v>
       </c>
     </row>
     <row r="6">
@@ -3445,7 +3446,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.2065354883719</v>
+        <v>583.1411863171382</v>
       </c>
     </row>
     <row r="7">
@@ -3455,7 +3456,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>271.8259704037683</v>
+        <v>330.0112087202279</v>
       </c>
     </row>
     <row r="8">
@@ -3465,7 +3466,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.0475735835682</v>
+        <v>221.91158039183</v>
       </c>
     </row>
     <row r="9">
@@ -3475,7 +3476,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>244.9007485958608</v>
+        <v>291.0408452486143</v>
       </c>
     </row>
     <row r="10">
@@ -3485,7 +3486,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4149.911884298884</v>
+        <v>6026.125559236091</v>
       </c>
     </row>
     <row r="11">
@@ -3495,7 +3496,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3436.618126823891</v>
+        <v>4983.291813218805</v>
       </c>
     </row>
     <row r="12">
@@ -3505,7 +3506,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>763.8928924759524</v>
+        <v>850.4821518472538</v>
       </c>
     </row>
     <row r="13">
@@ -3515,7 +3516,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.02246149713289</v>
+        <v>46.30425222629508</v>
       </c>
     </row>
     <row r="14">
@@ -3525,7 +3526,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.27161540641166</v>
+        <v>67.40974225328328</v>
       </c>
     </row>
     <row r="15">
@@ -3535,7 +3536,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5367.45420825912</v>
+        <v>7617.162659614383</v>
       </c>
     </row>
     <row r="16">
@@ -3545,7 +3546,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.7244645501292</v>
+        <v>555.4786764764607</v>
       </c>
     </row>
     <row r="17">
@@ -3555,7 +3556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.7305978929988</v>
+        <v>327.8972648211345</v>
       </c>
     </row>
     <row r="18">
@@ -3565,7 +3566,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161.8176611538815</v>
+        <v>213.922824446719</v>
       </c>
     </row>
     <row r="19">
@@ -3575,7 +3576,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.9691246859428</v>
+        <v>290.6428138812796</v>
       </c>
     </row>
     <row r="20">
@@ -3585,7 +3586,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4202.266147802651</v>
+        <v>5996.671415814327</v>
       </c>
     </row>
     <row r="21">
@@ -3595,7 +3596,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3478.720728207509</v>
+        <v>4957.76949812293</v>
       </c>
     </row>
     <row r="22">
@@ -3605,7 +3606,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>776.3169442605617</v>
+        <v>818.950195010165</v>
       </c>
     </row>
     <row r="23">
@@ -3615,7 +3616,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.0357024861605</v>
+        <v>46.96400005882118</v>
       </c>
     </row>
     <row r="24">
@@ -3625,7 +3626,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.88695014780447</v>
+        <v>64.5247704605425</v>
       </c>
     </row>
     <row r="25">
@@ -3635,7 +3636,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5341.284376962699</v>
+        <v>7586.460036255187</v>
       </c>
     </row>
     <row r="26">
@@ -3645,7 +3646,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.3563010862504</v>
+        <v>535.7923153444603</v>
       </c>
     </row>
     <row r="27">
@@ -3655,7 +3656,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.9332045649687</v>
+        <v>330.3647229232809</v>
       </c>
     </row>
     <row r="28">
@@ -3665,7 +3666,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.1498210419813</v>
+        <v>212.6497563248165</v>
       </c>
     </row>
     <row r="29">
@@ -3675,7 +3676,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.4258235787073</v>
+        <v>290.6555869656408</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +3686,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4183.184645399268</v>
+        <v>5968.46410349539</v>
       </c>
     </row>
     <row r="31">
@@ -3695,7 +3696,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3463.520804817353</v>
+        <v>4932.289177571326</v>
       </c>
     </row>
     <row r="32">
@@ -3705,7 +3706,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>827.4455984094818</v>
+        <v>821.5048018438566</v>
       </c>
     </row>
     <row r="33">
@@ -3715,7 +3716,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.56559514469672</v>
+        <v>46.8141123979551</v>
       </c>
     </row>
     <row r="34">
@@ -3725,7 +3726,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.01072854285614</v>
+        <v>64.58417449875738</v>
       </c>
     </row>
     <row r="35">
@@ -3735,7 +3736,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5719.851803727227</v>
+        <v>7584.08358890589</v>
       </c>
     </row>
     <row r="36">
@@ -3745,7 +3746,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>535.2051680163489</v>
+        <v>537.213747821209</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3756,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.2827794396997</v>
+        <v>329.5985852757835</v>
       </c>
     </row>
     <row r="38">
@@ -3765,7 +3766,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.6801495305218</v>
+        <v>212.765784767146</v>
       </c>
     </row>
     <row r="39">
@@ -3775,7 +3776,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>253.3299926066918</v>
+        <v>290.37311457674</v>
       </c>
     </row>
     <row r="40">
@@ -3785,7 +3786,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4490.366995212748</v>
+        <v>5967.050606477486</v>
       </c>
     </row>
     <row r="41">
@@ -3795,7 +3796,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3717.4964437714</v>
+        <v>4931.533055889108</v>
       </c>
     </row>
     <row r="42">
@@ -3805,7 +3806,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>844.4372106288381</v>
+        <v>801.8182145765466</v>
       </c>
     </row>
     <row r="43">
@@ -3815,7 +3816,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.77582529658132</v>
+        <v>47.1576388041025</v>
       </c>
     </row>
     <row r="44">
@@ -3825,7 +3826,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66.7005970383839</v>
+        <v>63.14670187157189</v>
       </c>
     </row>
     <row r="45">
@@ -3835,7 +3836,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5895.432936494567</v>
+        <v>7636.980562252411</v>
       </c>
     </row>
     <row r="46">
@@ -3845,7 +3846,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.2577414126015</v>
+        <v>525.2642217353888</v>
       </c>
     </row>
     <row r="47">
@@ -3855,7 +3856,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>280.4794004802361</v>
+        <v>331.23370811502</v>
       </c>
     </row>
     <row r="48">
@@ -3865,7 +3866,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>174.7070298408788</v>
+        <v>213.1669370603162</v>
       </c>
     </row>
     <row r="49">
@@ -3875,7 +3876,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>256.684637091378</v>
+        <v>291.6201623841163</v>
       </c>
     </row>
     <row r="50">
@@ -3885,7 +3886,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4630.759654323883</v>
+        <v>6006.228283481562</v>
       </c>
     </row>
     <row r="51">
@@ -3895,7 +3896,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3834.289756139558</v>
+        <v>4962.843753375882</v>
       </c>
     </row>
     <row r="52">
@@ -3905,7 +3906,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>58.67739425512776</v>
+        <v>81.01727868110483</v>
       </c>
     </row>
     <row r="53">
@@ -3915,7 +3916,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2238.775864048722</v>
+        <v>1639.366347757997</v>
       </c>
     </row>
     <row r="54">
@@ -3925,7 +3926,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.570364128501473</v>
+        <v>4.581620669484334</v>
       </c>
     </row>
     <row r="55">
@@ -3935,7 +3936,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.06961003901151</v>
+        <v>92.70806013257031</v>
       </c>
     </row>
     <row r="56">
@@ -3945,7 +3946,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.711605431720875</v>
+        <v>6.342693094789644</v>
       </c>
     </row>
     <row r="57">
@@ -3955,7 +3956,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>179.7664783066905</v>
+        <v>128.3429631681794</v>
       </c>
     </row>
     <row r="58">
@@ -3965,7 +3966,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>627.3115388349762</v>
+        <v>923.7853505168712</v>
       </c>
     </row>
     <row r="59">
@@ -3975,7 +3976,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16070.80745161189</v>
+        <v>14768.74176298552</v>
       </c>
     </row>
     <row r="60">
@@ -3985,7 +3986,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>38.94677010481447</v>
+        <v>54.46432312282134</v>
       </c>
     </row>
     <row r="61">
@@ -3995,7 +3996,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1447.145931449757</v>
+        <v>1069.910029977234</v>
       </c>
     </row>
     <row r="62">
@@ -4005,7 +4006,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>131.6133317075754</v>
+        <v>156.0487194445635</v>
       </c>
     </row>
     <row r="63">
@@ -4015,7 +4016,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>564.5348484309053</v>
+        <v>522.1451707058199</v>
       </c>
     </row>
     <row r="64">
@@ -4025,7 +4026,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>22.54812430981681</v>
+        <v>37.7112364148697</v>
       </c>
     </row>
     <row r="65">
@@ -4035,7 +4036,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>455.9215381064186</v>
+        <v>403.7223665328395</v>
       </c>
     </row>
     <row r="66">
@@ -4045,7 +4046,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>150.6689958670032</v>
+        <v>157.0579069806024</v>
       </c>
     </row>
     <row r="67">
@@ -4055,7 +4056,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>461.3476506037151</v>
+        <v>435.0621632093942</v>
       </c>
     </row>
     <row r="68">
@@ -4065,7 +4066,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>337.7855618073626</v>
+        <v>581.9981843095779</v>
       </c>
     </row>
     <row r="69">
@@ -4075,7 +4076,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12887.86205655979</v>
+        <v>11776.60189709506</v>
       </c>
     </row>
     <row r="70">
@@ -4085,7 +4086,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>279.6674922573239</v>
+        <v>481.0058984480296</v>
       </c>
     </row>
     <row r="71">
@@ -4095,7 +4096,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10670.42665361735</v>
+        <v>9733.045787585901</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +4868,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759.0489501953125</v>
+        <v>928.969482421875</v>
       </c>
     </row>
     <row r="3">
@@ -4877,7 +4878,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.97824096679688</v>
+        <v>45.67588043212891</v>
       </c>
     </row>
     <row r="4">
@@ -4887,7 +4888,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.86519622802734</v>
+        <v>66.58480072021484</v>
       </c>
     </row>
     <row r="5">
@@ -4897,7 +4898,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5681.07958984375</v>
+        <v>7066.5634765625</v>
       </c>
     </row>
     <row r="6">
@@ -4907,7 +4908,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490.7583923339844</v>
+        <v>601.9877319335938</v>
       </c>
     </row>
     <row r="7">
@@ -4917,7 +4918,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>277.689208984375</v>
+        <v>327.0218811035156</v>
       </c>
     </row>
     <row r="8">
@@ -4927,7 +4928,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.9974212646484</v>
+        <v>221.2900238037109</v>
       </c>
     </row>
     <row r="9">
@@ -4937,7 +4938,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>252.3761291503906</v>
+        <v>281.6060791015625</v>
       </c>
     </row>
     <row r="10">
@@ -4947,7 +4948,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4425.83837890625</v>
+        <v>5564.140625</v>
       </c>
     </row>
     <row r="11">
@@ -4957,7 +4958,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3658.36279296875</v>
+        <v>4755.16015625</v>
       </c>
     </row>
     <row r="12">
@@ -4967,7 +4968,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.5907592773438</v>
+        <v>902.009033203125</v>
       </c>
     </row>
     <row r="13">
@@ -4977,7 +4978,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.25310516357422</v>
+        <v>46.64623260498047</v>
       </c>
     </row>
     <row r="14">
@@ -4987,7 +4988,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.82477951049805</v>
+        <v>69.07176971435547</v>
       </c>
     </row>
     <row r="15">
@@ -4997,7 +4998,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5698.71484375</v>
+        <v>7241.85986328125</v>
       </c>
     </row>
     <row r="16">
@@ -5007,7 +5008,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.5738220214844</v>
+        <v>590.9030151367188</v>
       </c>
     </row>
     <row r="17">
@@ -5017,7 +5018,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>279.644775390625</v>
+        <v>326.661865234375</v>
       </c>
     </row>
     <row r="18">
@@ -5027,7 +5028,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>174.1059722900391</v>
+        <v>211.8269348144531</v>
       </c>
     </row>
     <row r="19">
@@ -5037,7 +5038,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.8833923339844</v>
+        <v>284.2603149414062</v>
       </c>
     </row>
     <row r="20">
@@ -5047,7 +5048,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4440.521484375</v>
+        <v>5732.515625</v>
       </c>
     </row>
     <row r="21">
@@ -5057,7 +5058,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3682.50146484375</v>
+        <v>4754.7021484375</v>
       </c>
     </row>
     <row r="22">
@@ -5067,7 +5068,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.3019409179688</v>
+        <v>886.1360473632812</v>
       </c>
     </row>
     <row r="23">
@@ -5077,7 +5078,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.76483154296875</v>
+        <v>46.70849990844727</v>
       </c>
     </row>
     <row r="24">
@@ -5087,7 +5088,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.59280776977539</v>
+        <v>69.49791717529297</v>
       </c>
     </row>
     <row r="25">
@@ -5097,7 +5098,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5674.625</v>
+        <v>7353.0478515625</v>
       </c>
     </row>
     <row r="26">
@@ -5107,7 +5108,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>476.3450317382812</v>
+        <v>580.5213012695312</v>
       </c>
     </row>
     <row r="27">
@@ -5117,7 +5118,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>279.9715576171875</v>
+        <v>326.4214782714844</v>
       </c>
     </row>
     <row r="28">
@@ -5127,7 +5128,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.1145629882812</v>
+        <v>210.4012145996094</v>
       </c>
     </row>
     <row r="29">
@@ -5137,7 +5138,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>252.5364532470703</v>
+        <v>286.72705078125</v>
       </c>
     </row>
     <row r="30">
@@ -5147,7 +5148,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4418.93896484375</v>
+        <v>5815.0087890625</v>
       </c>
     </row>
     <row r="31">
@@ -5157,7 +5158,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3668.66943359375</v>
+        <v>4804.31689453125</v>
       </c>
     </row>
     <row r="32">
@@ -5167,7 +5168,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>757.4010009765625</v>
+        <v>869.5425415039062</v>
       </c>
     </row>
     <row r="33">
@@ -5177,7 +5178,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.96774291992188</v>
+        <v>46.62588500976562</v>
       </c>
     </row>
     <row r="34">
@@ -5187,7 +5188,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.69087219238281</v>
+        <v>69.05316162109375</v>
       </c>
     </row>
     <row r="35">
@@ -5197,7 +5198,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5630.97509765625</v>
+        <v>7465.88623046875</v>
       </c>
     </row>
     <row r="36">
@@ -5207,7 +5208,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>484.9595031738281</v>
+        <v>570.539794921875</v>
       </c>
     </row>
     <row r="37">
@@ -5217,7 +5218,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.9966735839844</v>
+        <v>326.8198852539062</v>
       </c>
     </row>
     <row r="38">
@@ -5227,7 +5228,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.5121917724609</v>
+        <v>210.5937957763672</v>
       </c>
     </row>
     <row r="39">
@@ -5237,7 +5238,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>251.5162811279297</v>
+        <v>288.8355102539062</v>
       </c>
     </row>
     <row r="40">
@@ -5247,7 +5248,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4386.15625</v>
+        <v>5900.82763671875</v>
       </c>
     </row>
     <row r="41">
@@ -5257,7 +5258,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3635.61669921875</v>
+        <v>4858.455078125</v>
       </c>
     </row>
     <row r="42">
@@ -5267,7 +5268,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>745.7179565429688</v>
+        <v>857.3765258789062</v>
       </c>
     </row>
     <row r="43">
@@ -5277,7 +5278,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.2363166809082</v>
+        <v>46.57736968994141</v>
       </c>
     </row>
     <row r="44">
@@ -5287,7 +5288,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.31451797485352</v>
+        <v>68.34909820556641</v>
       </c>
     </row>
     <row r="45">
@@ -5297,7 +5298,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5613.46875</v>
+        <v>7563.46484375</v>
       </c>
     </row>
     <row r="46">
@@ -5307,7 +5308,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>476.3907165527344</v>
+        <v>561.94677734375</v>
       </c>
     </row>
     <row r="47">
@@ -5317,7 +5318,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>278.5549621582031</v>
+        <v>327.1690063476562</v>
       </c>
     </row>
     <row r="48">
@@ -5327,7 +5328,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>167.4187622070312</v>
+        <v>211.5068969726562</v>
       </c>
     </row>
     <row r="49">
@@ -5337,7 +5338,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>251.2522277832031</v>
+        <v>290.4906005859375</v>
       </c>
     </row>
     <row r="50">
@@ -5347,7 +5348,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4368.4267578125</v>
+        <v>5974.81591796875</v>
       </c>
     </row>
     <row r="51">
@@ -5357,7 +5358,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3628.64013671875</v>
+        <v>4911.28759765625</v>
       </c>
     </row>
     <row r="52">
@@ -5367,7 +5368,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38.02728652954102</v>
+        <v>56.47988128662109</v>
       </c>
     </row>
     <row r="53">
@@ -5377,7 +5378,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2021.255493164062</v>
+        <v>1683.568359375</v>
       </c>
     </row>
     <row r="54">
@@ -5387,7 +5388,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.932440996170044</v>
+        <v>3.063130855560303</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5398,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.34141540527344</v>
+        <v>90.84885406494141</v>
       </c>
     </row>
     <row r="56">
@@ -5407,7 +5408,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.997017383575439</v>
+        <v>4.49658727645874</v>
       </c>
     </row>
     <row r="57">
@@ -5417,7 +5418,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>157.5636138916016</v>
+        <v>134.0503845214844</v>
       </c>
     </row>
     <row r="58">
@@ -5427,7 +5428,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>540.2446899414062</v>
+        <v>742.3895874023438</v>
       </c>
     </row>
     <row r="59">
@@ -5437,7 +5438,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15547.57421875</v>
+        <v>14810.2548828125</v>
       </c>
     </row>
     <row r="60">
@@ -5447,7 +5448,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29.77157974243164</v>
+        <v>39.96560668945312</v>
       </c>
     </row>
     <row r="61">
@@ -5457,7 +5458,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1305.971069335938</v>
+        <v>1102.422973632812</v>
       </c>
     </row>
     <row r="62">
@@ -5467,7 +5468,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>140.4687347412109</v>
+        <v>147.4487609863281</v>
       </c>
     </row>
     <row r="63">
@@ -5477,7 +5478,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>555.7098388671875</v>
+        <v>519.8721923828125</v>
       </c>
     </row>
     <row r="64">
@@ -5487,7 +5488,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.443115234375</v>
+        <v>31.01778221130371</v>
       </c>
     </row>
     <row r="65">
@@ -5497,7 +5498,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>433.7268371582031</v>
+        <v>405.177734375</v>
       </c>
     </row>
     <row r="66">
@@ -5507,7 +5508,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>149.2235412597656</v>
+        <v>153.7439117431641</v>
       </c>
     </row>
     <row r="67">
@@ -5517,7 +5518,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>451.7076721191406</v>
+        <v>435.6605224609375</v>
       </c>
     </row>
     <row r="68">
@@ -5527,7 +5528,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>238.6117553710938</v>
+        <v>408.1165771484375</v>
       </c>
     </row>
     <row r="69">
@@ -5537,7 +5538,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12389.9697265625</v>
+        <v>11821.0478515625</v>
       </c>
     </row>
     <row r="70">
@@ -5547,7 +5548,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>180.5525817871094</v>
+        <v>332.2896423339844</v>
       </c>
     </row>
     <row r="71">
@@ -5557,7 +5558,738 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10198.9453125</v>
+        <v>9757.8212890625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Predicted Value (mg/L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>X_H_A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>883.1546130119265</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>X_PAO_A1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52.68706059647321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X_AUT_A1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>64.49709991895099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COD_A1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7505.661347562394</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BOD_A1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>594.6642560036389</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN_A1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>331.597983842658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TKN_A1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>230.0564752905859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TP_A1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>289.3647464094738</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TSS_A1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5913.824748303288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VSS_A1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4889.372302902822</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>X_H_A2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>875.6747195319372</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>X_PAO_A2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.02812964629578</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>X_AUT_A2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.74035569200024</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>COD_A2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7472.399435508076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BOD_A2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>576.1096394950451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN_A2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>331.1902881982773</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TKN_A2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>215.302662559742</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TP_A2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>289.6696059294898</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TSS_A2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5897.537306810848</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VSS_A2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4869.950245205007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>X_H_O1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>859.6874852524053</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>X_PAO_O1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>52.68940799285792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>X_AUT_O1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>66.21316148945414</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>COD_O1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7446.837038428347</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BOD_O1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>564.6995322348504</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TN_O1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>330.7498618098385</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TKN_O1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>213.7914569130817</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TP_O1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>289.6970292112235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TSS_O1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5874.829369080669</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VSS_O1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4850.176918876742</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>X_H_O2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>840.9475100403209</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>X_PAO_O2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>52.56352564880117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>X_AUT_O2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>65.2762622019346</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>COD_O2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7431.969564325175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BOD_O2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>553.2016002743499</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TN_O2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>330.6185837466146</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TKN_O2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>212.9300947176123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TP_O2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>289.4398975165807</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TSS_O2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5859.740614394424</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VSS_O2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4837.410388064809</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>X_H_O3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>824.0352719777336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>X_PAO_O3</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>52.55396527743186</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>X_AUT_O3</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>64.33923561963628</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>COD_O3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7416.538727886059</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BOD_O3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>543.1583641007941</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TN_O3</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>330.4024261428041</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TKN_O3</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>212.0063876552978</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TP_O3</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>289.2005101094342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TSS_O3</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5845.351148693395</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>VSS_O3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4824.988262105719</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>X_H_Effluent</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>59.25936866442728</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>X_H_Wastage</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1651.892424071174</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>X_PAO_Effluent</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.745008257793562</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>X_PAO_Wastage</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>104.5769744395907</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>X_AUT_Effluent</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4.615250173206687</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>X_AUT_Wastage</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>128.1671724210172</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>COD_Effluent</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>760.2451046166017</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>COD_Wastage</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>14638.3019123283</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BOD_Effluent</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>41.91678255399263</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BOD_Wastage</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1084.174990381866</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TN_Effluent</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>152.5327228518324</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TN_Wastage</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>520.7577713709974</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TKN_Effluent</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>33.6452107031083</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TKN_Wastage</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>402.3446234852807</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TP_Effluent</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>153.6627182835238</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TP_Wastage</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>437.5212769093495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TSS_Effluent</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>420.8673989355673</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TSS_Wastage</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>11689.77168228194</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VSS_Effluent</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>347.3791930502949</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VSS_Wastage</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9650.432095220178</v>
       </c>
     </row>
   </sheetData>
